--- a/Hydrometer_V8.xlsx
+++ b/Hydrometer_V8.xlsx
@@ -1,36 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BRTC\0_PROJECTS\42-Old Airport-File 5286\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdnas\Desktop\ANN excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1669EF-3C7D-4686-8D19-280C8C4402DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BE422-0915-4B9F-B2E4-B5322C870D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="30" r:id="rId1"/>
-    <sheet name="Some Calculations" sheetId="32" r:id="rId2"/>
-    <sheet name="Report" sheetId="31" r:id="rId3"/>
+    <sheet name="input-output" sheetId="33" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="34" r:id="rId3"/>
+    <sheet name="Some Calculations" sheetId="32" r:id="rId4"/>
+    <sheet name="Report" sheetId="31" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Agrad" localSheetId="0">main!$U$28</definedName>
-    <definedName name="Agrad" localSheetId="2">Report!#REF!</definedName>
+    <definedName name="Agrad" localSheetId="4">Report!#REF!</definedName>
     <definedName name="Agrad">#REF!</definedName>
     <definedName name="GS" localSheetId="0">main!$E$70</definedName>
-    <definedName name="GS" localSheetId="2">Report!#REF!</definedName>
+    <definedName name="GS" localSheetId="4">Report!#REF!</definedName>
     <definedName name="GS">#REF!</definedName>
     <definedName name="Ltwo" localSheetId="0">main!$P$28</definedName>
-    <definedName name="Ltwo" localSheetId="2">Report!#REF!</definedName>
+    <definedName name="Ltwo" localSheetId="4">Report!#REF!</definedName>
     <definedName name="Ltwo">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">main!$A$1:$I$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Report!$A$1:$I$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Report!$A$1:$Q$55</definedName>
     <definedName name="Vb" localSheetId="0">main!$Q$29</definedName>
-    <definedName name="Vb" localSheetId="2">Report!#REF!</definedName>
+    <definedName name="Vb" localSheetId="4">Report!#REF!</definedName>
     <definedName name="Vb">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,9 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,14 +51,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
   <si>
     <t>Date</t>
   </si>
@@ -1316,6 +1319,116 @@
   <si>
     <t>ASTM D422, D854, D1140, D6913, D7928</t>
   </si>
+  <si>
+    <t>wt. of soil retained</t>
+  </si>
+  <si>
+    <t>Sieve no</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Zero Correction:</t>
+  </si>
+  <si>
+    <t>Miniscus correction:</t>
+  </si>
+  <si>
+    <t>Liquid Limit Test</t>
+  </si>
+  <si>
+    <t>Trial no.</t>
+  </si>
+  <si>
+    <t>No. of blows</t>
+  </si>
+  <si>
+    <t>Wt. of container in gm.</t>
+  </si>
+  <si>
+    <t>Wt. of container + wet soil, gm</t>
+  </si>
+  <si>
+    <t>Wt. of container + dry soil, gm</t>
+  </si>
+  <si>
+    <r>
+      <t>Wt. of water, W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in gm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wt. of dry soil, W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in gm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Water content, w in %</t>
+  </si>
+  <si>
+    <t>Plastic Limit Test</t>
+  </si>
+  <si>
+    <t>Wt. container + wet soil, gm</t>
+  </si>
+  <si>
+    <t>Wt. container + dry soil, gm</t>
+  </si>
+  <si>
+    <t>Wt. of water in gm.</t>
+  </si>
+  <si>
+    <t>Wt. of dry soil in gm.</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Final Result</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
 </sst>
 </file>
 
@@ -1326,7 +1439,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1514,8 +1627,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,8 +1690,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2007,11 +2151,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2260,9 +2439,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,53 +2599,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2495,6 +2701,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4225,46 +4482,46 @@
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2839999999999998E-2</c:v>
+                  <c:v>5.1150000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8269999999999998E-2</c:v>
+                  <c:v>3.7859999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.768E-2</c:v>
+                  <c:v>2.7539999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0109999999999999E-2</c:v>
+                  <c:v>2.018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.452E-2</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0869999999999999E-2</c:v>
+                  <c:v>1.107E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8700000000000003E-3</c:v>
+                  <c:v>7.9699999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6600000000000001E-3</c:v>
+                  <c:v>5.7400000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0600000000000002E-3</c:v>
+                  <c:v>4.1099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8900000000000002E-3</c:v>
+                  <c:v>2.9399999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0600000000000002E-3</c:v>
+                  <c:v>2.0799999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.2199999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.4999999999999995E-4</c:v>
+                  <c:v>8.5999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1000000000000002E-4</c:v>
+                  <c:v>6.9999999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4288,55 +4545,55 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.2</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.5</c:v>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>80.03364096</c:v>
+                  <c:v>87.105192959999982</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00">
-                  <c:v>75.891112959999987</c:v>
+                  <c:v>76.599084160000018</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>71.748584960000002</c:v>
+                  <c:v>68.958277760000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>66.777551360000004</c:v>
+                  <c:v>59.407269759999998</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00">
-                  <c:v>62.635023359999998</c:v>
+                  <c:v>49.85626176000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>57.663989759999993</c:v>
+                  <c:v>42.215455359999993</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00">
-                  <c:v>52.692956160000001</c:v>
+                  <c:v>36.484850559999998</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>49.378933760000002</c:v>
+                  <c:v>30.754245760000003</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>46.064911360000018</c:v>
+                  <c:v>25.978741760000002</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>43.579394560000011</c:v>
+                  <c:v>23.113439359999997</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>41.259578879999999</c:v>
+                  <c:v>22.158338559999997</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>39.271165439999997</c:v>
+                  <c:v>18.337935359999999</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>36.785648640000005</c:v>
+                  <c:v>18.528955519999997</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>35.957143039999998</c:v>
+                  <c:v>17.57385472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,8 +5078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9696450" y="1781175"/>
-          <a:ext cx="1304925" cy="2800350"/>
+          <a:off x="9118600" y="1774825"/>
+          <a:ext cx="1365250" cy="2784475"/>
           <a:chOff x="973" y="190"/>
           <a:chExt cx="149" cy="216"/>
         </a:xfrm>
@@ -6948,8 +7205,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -7846,6 +8103,32 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="main"/>
+      <sheetName val="Report"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="D36">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45">
+            <v>21</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8194,32 +8477,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="15" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" customWidth="1"/>
+    <col min="14" max="15" width="8.54296875" customWidth="1"/>
+    <col min="17" max="17" width="6.26953125" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" customWidth="1"/>
+    <col min="20" max="20" width="6.7265625" customWidth="1"/>
+    <col min="21" max="21" width="7.1796875" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8233,7 +8518,7 @@
       <c r="AJ1" s="34"/>
       <c r="AK1" s="34"/>
     </row>
-    <row r="2" spans="1:37" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -8248,7 +8533,7 @@
       <c r="AJ2" s="34"/>
       <c r="AK2" s="34"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="13" x14ac:dyDescent="0.3">
       <c r="D3" s="6"/>
       <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
@@ -8256,7 +8541,7 @@
       <c r="AJ3" s="34"/>
       <c r="AK3" s="34"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="13" x14ac:dyDescent="0.3">
       <c r="D4" s="9"/>
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
@@ -8264,78 +8549,78 @@
       <c r="AJ4" s="34"/>
       <c r="AK4" s="34"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
       <c r="AJ5" s="34"/>
       <c r="AK5" s="34"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AG6" s="34"/>
       <c r="AH6" s="34"/>
       <c r="AI6" s="34"/>
       <c r="AJ6" s="34"/>
       <c r="AK6" s="34"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="13" x14ac:dyDescent="0.25">
       <c r="J7" s="84"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
       <c r="S7" s="85"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="220"/>
+      <c r="V7" s="220"/>
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
       <c r="AI7" s="34"/>
       <c r="AJ7" s="34"/>
       <c r="AK7" s="34"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="196" t="s">
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
       <c r="J8" s="84"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="218"/>
       <c r="S8" s="85"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="201"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="220"/>
       <c r="AG8" s="34"/>
       <c r="AH8" s="34"/>
       <c r="AI8" s="34"/>
       <c r="AJ8" s="34"/>
       <c r="AK8" s="34"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>96</v>
       </c>
@@ -8345,76 +8630,76 @@
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="84"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="217"/>
       <c r="S9" s="85"/>
       <c r="T9" s="87"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="201"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="220"/>
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="34"/>
       <c r="AK9" s="34"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
       <c r="J10" s="84"/>
       <c r="K10" s="96"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="206"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="207"/>
-      <c r="U10" s="207"/>
-      <c r="V10" s="207"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="225"/>
+      <c r="T10" s="226"/>
+      <c r="U10" s="226"/>
+      <c r="V10" s="226"/>
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
       <c r="AI10" s="34"/>
       <c r="AJ10" s="34"/>
       <c r="AK10" s="34"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="87"/>
-      <c r="C11" s="167">
+      <c r="C11" s="166">
         <v>2</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="92"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -8433,12 +8718,12 @@
       <c r="AJ11" s="34"/>
       <c r="AK11" s="34"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="166" t="s">
+    <row r="12" spans="1:37" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="165" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="87"/>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="166" t="s">
         <v>146</v>
       </c>
       <c r="D12" s="91"/>
@@ -8469,12 +8754,12 @@
       <c r="AJ12" s="34"/>
       <c r="AK12" s="34"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="89"/>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="169" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="94"/>
@@ -8482,11 +8767,11 @@
       <c r="F13" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="197" t="s">
+      <c r="G13" s="242" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
       <c r="J13" s="79" t="s">
         <v>46</v>
       </c>
@@ -8511,7 +8796,7 @@
       <c r="AJ13" s="34"/>
       <c r="AK13" s="34"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
         <v>102</v>
       </c>
@@ -8522,9 +8807,9 @@
       </c>
       <c r="E14" s="93"/>
       <c r="F14" s="104"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
       <c r="J14" s="20" t="s">
         <v>47</v>
       </c>
@@ -8547,7 +8832,7 @@
       <c r="AJ14" s="34"/>
       <c r="AK14" s="34"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="81"/>
       <c r="C15" s="23"/>
       <c r="E15" s="56"/>
@@ -8559,10 +8844,11 @@
         <v>4.75</v>
       </c>
       <c r="L15" s="111">
+        <f>'input-output'!C4</f>
         <v>0</v>
       </c>
       <c r="M15" s="54">
-        <f t="shared" ref="M15:M22" si="0">L15/$N$12*100</f>
+        <f>L15/$N$12*P18100</f>
         <v>0</v>
       </c>
       <c r="N15" s="54">
@@ -8570,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="54">
-        <f t="shared" ref="O15:O21" si="1">100-N15</f>
+        <f t="shared" ref="O15:O21" si="0">100-N15</f>
         <v>100</v>
       </c>
       <c r="AG15" s="34"/>
@@ -8579,7 +8865,7 @@
       <c r="AJ15" s="34"/>
       <c r="AK15" s="34"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="81" t="s">
         <v>95</v>
       </c>
@@ -8593,10 +8879,11 @@
         <v>2.36</v>
       </c>
       <c r="L16" s="111">
+        <f>'input-output'!C5</f>
         <v>0</v>
       </c>
       <c r="M16" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M16:M22" si="1">L16/$N$12*100</f>
         <v>0</v>
       </c>
       <c r="N16" s="54">
@@ -8604,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AG16" s="34"/>
@@ -8613,7 +8900,7 @@
       <c r="AJ16" s="34"/>
       <c r="AK16" s="34"/>
     </row>
-    <row r="17" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -8626,10 +8913,11 @@
         <v>1.18</v>
       </c>
       <c r="L17" s="111">
+        <f>'input-output'!C6</f>
         <v>0</v>
       </c>
       <c r="M17" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="54">
@@ -8637,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="V17" s="83"/>
@@ -8647,7 +8935,7 @@
       <c r="AJ17" s="34"/>
       <c r="AK17" s="34"/>
     </row>
-    <row r="18" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8664,10 +8952,11 @@
         <v>0.6</v>
       </c>
       <c r="L18" s="111">
+        <f>'input-output'!C7</f>
         <v>0</v>
       </c>
       <c r="M18" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="54">
@@ -8675,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AG18" s="34"/>
@@ -8684,7 +8973,7 @@
       <c r="AJ18" s="34"/>
       <c r="AK18" s="34"/>
     </row>
-    <row r="19" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8701,19 +8990,20 @@
         <v>0.3</v>
       </c>
       <c r="L19" s="111">
-        <v>1.2</v>
+        <f>'input-output'!C8</f>
+        <v>0</v>
       </c>
       <c r="M19" s="54">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N19" s="54">
         <f>SUM(M15:M19)</f>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="54">
-        <f t="shared" si="1"/>
-        <v>98.8</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="AG19" s="34"/>
       <c r="AH19" s="34"/>
@@ -8721,7 +9011,7 @@
       <c r="AJ19" s="34"/>
       <c r="AK19" s="34"/>
     </row>
-    <row r="20" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8738,19 +9028,20 @@
         <v>0.15</v>
       </c>
       <c r="L20" s="111">
-        <v>9.6</v>
+        <f>'input-output'!C9</f>
+        <v>0.6</v>
       </c>
       <c r="M20" s="54">
-        <f t="shared" si="0"/>
-        <v>9.6</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
       <c r="N20" s="54">
         <f>SUM(M15:M20)</f>
-        <v>10.799999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="O20" s="54">
-        <f t="shared" si="1"/>
-        <v>89.2</v>
+        <f t="shared" si="0"/>
+        <v>99.4</v>
       </c>
       <c r="AG20" s="34"/>
       <c r="AH20" s="34"/>
@@ -8758,7 +9049,7 @@
       <c r="AJ20" s="34"/>
       <c r="AK20" s="34"/>
     </row>
-    <row r="21" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8775,19 +9066,20 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L21" s="111">
-        <v>4.7</v>
+        <f>'input-output'!C10</f>
+        <v>2.4</v>
       </c>
       <c r="M21" s="54">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
+        <f t="shared" si="1"/>
+        <v>2.4</v>
       </c>
       <c r="N21" s="54">
         <f>SUM(M15:M21)</f>
-        <v>15.5</v>
+        <v>3</v>
       </c>
       <c r="O21" s="54">
-        <f t="shared" si="1"/>
-        <v>84.5</v>
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="AG21" s="34"/>
       <c r="AH21" s="34"/>
@@ -8795,7 +9087,7 @@
       <c r="AJ21" s="34"/>
       <c r="AK21" s="34"/>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8811,14 +9103,15 @@
       <c r="K22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="112">
-        <v>84.5</v>
+      <c r="L22" s="111">
+        <f>'input-output'!C11</f>
+        <v>97</v>
       </c>
       <c r="M22" s="54">
-        <f t="shared" si="0"/>
-        <v>84.5</v>
-      </c>
-      <c r="N22" s="113">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="N22" s="112">
         <f>IF(SUM(M15:M22)=100,100,"Adjust wt.")</f>
         <v>100</v>
       </c>
@@ -8831,7 +9124,7 @@
       <c r="AJ22" s="34"/>
       <c r="AK22" s="34"/>
     </row>
-    <row r="23" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8859,7 +9152,7 @@
       <c r="AJ23" s="34"/>
       <c r="AK23" s="34"/>
     </row>
-    <row r="24" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -8878,7 +9171,7 @@
       <c r="AJ24" s="34"/>
       <c r="AK24" s="34"/>
     </row>
-    <row r="25" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -8897,7 +9190,7 @@
       <c r="AJ25" s="34"/>
       <c r="AK25" s="34"/>
     </row>
-    <row r="26" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="10" t="s">
         <v>19</v>
       </c>
@@ -8918,7 +9211,7 @@
       <c r="AJ26" s="34"/>
       <c r="AK26" s="34"/>
     </row>
-    <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8930,18 +9223,18 @@
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="208" t="s">
+      <c r="M27" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="209"/>
+      <c r="N27" s="228"/>
       <c r="O27" s="29" t="s">
         <v>52</v>
       </c>
       <c r="P27" s="31"/>
-      <c r="Q27" s="210">
+      <c r="Q27" s="229">
         <v>867452</v>
       </c>
-      <c r="R27" s="211"/>
+      <c r="R27" s="230"/>
       <c r="S27" s="33" t="s">
         <v>55</v>
       </c>
@@ -8949,7 +9242,7 @@
       <c r="U27" s="32"/>
       <c r="V27" s="66">
         <f>GS</f>
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AH27" s="34"/>
       <c r="AI27" s="34"/>
@@ -8957,7 +9250,7 @@
       <c r="AK27" s="34"/>
       <c r="AL27" s="34"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J28" s="29" t="s">
         <v>58</v>
       </c>
@@ -8999,7 +9292,7 @@
       <c r="AK28" s="34"/>
       <c r="AL28" s="34"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J29" s="29" t="s">
         <v>58</v>
       </c>
@@ -9041,20 +9334,20 @@
       <c r="AJ29" s="34"/>
       <c r="AK29" s="34"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J30" s="29" t="s">
         <v>53</v>
       </c>
       <c r="K30" s="31"/>
-      <c r="L30" s="203" t="s">
+      <c r="L30" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="204"/>
-      <c r="N30" s="204"/>
-      <c r="O30" s="204"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="205"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
+      <c r="O30" s="223"/>
+      <c r="P30" s="223"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="224"/>
       <c r="S30" s="29" t="s">
         <v>64</v>
       </c>
@@ -9071,12 +9364,13 @@
       <c r="AK30" s="34"/>
       <c r="AL30" s="34"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J31" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="74">
+        <f>'input-output'!J3</f>
         <v>3</v>
       </c>
       <c r="M31" s="36" t="s">
@@ -9093,6 +9387,7 @@
       <c r="T31" s="64"/>
       <c r="U31" s="30"/>
       <c r="V31" s="76">
+        <f>'input-output'!J4</f>
         <v>0.5</v>
       </c>
       <c r="AH31" s="34"/>
@@ -9101,7 +9396,7 @@
       <c r="AK31" s="34"/>
       <c r="AL31" s="34"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9120,7 +9415,7 @@
       <c r="AJ32" s="34"/>
       <c r="AK32" s="34"/>
     </row>
-    <row r="33" spans="1:40" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="50" x14ac:dyDescent="0.25">
       <c r="J33" s="41" t="s">
         <v>0</v>
       </c>
@@ -9169,7 +9464,7 @@
       <c r="AM33" s="24"/>
       <c r="AN33" s="22"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J34" s="46"/>
       <c r="K34" s="47"/>
       <c r="L34" s="19" t="s">
@@ -9212,53 +9507,56 @@
       <c r="AI34" s="24"/>
       <c r="AJ34" s="22"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="J35" s="175" t="s">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J35" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="K35" s="186" t="s">
+      <c r="K35" s="232" t="s">
         <v>103</v>
       </c>
       <c r="L35" s="26">
+        <f>'input-output'!E5</f>
         <v>0.25</v>
       </c>
       <c r="M35" s="26">
-        <v>52</v>
+        <f>'input-output'!F5</f>
+        <v>48</v>
       </c>
       <c r="N35" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G5</f>
+        <v>33</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" ref="O35:O49" si="2">M35-$L$31+$V$31+ROUND(0.0001220529*N35^4-0.0097599296*N35^3+0.2949228983*N35^2-3.7542171086*N35+15.6302691117,1)</f>
-        <v>49.8</v>
+        <v>52.4</v>
       </c>
       <c r="P35" s="27">
         <f t="shared" ref="P35:P49" si="3">O35/$U$29*$P$52*100</f>
-        <v>97.655807999999993</v>
+        <v>103.19027199999999</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" ref="Q35:Q49" si="4">P35*$O$21/100</f>
-        <v>82.519157759999999</v>
+        <v>100.09456383999999</v>
       </c>
       <c r="R35" s="11">
         <f t="shared" ref="R35:R49" si="5">M35+$V$31</f>
-        <v>52.5</v>
+        <v>48.5</v>
       </c>
       <c r="S35" s="11">
         <f t="shared" ref="S35:S49" si="6">ROUND(($M$28-$M$29)/($K$28-$K$29)*(R35-$K$28)+$M$28+0.5*(Ltwo-Vb/Agrad),1)</f>
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T35" s="11">
         <f t="shared" ref="T35:T49" si="7">ROUND(-0.000005006464124*N35^2-0.00000484550743*N35+1.00033065352292,5)</f>
-        <v>0.99790999999999996</v>
+        <v>0.99472000000000005</v>
       </c>
       <c r="U35" s="11">
         <f t="shared" ref="U35:U49" si="8">ROUND(0.000000000347305*N35^4-0.00000010799529*N35^3+0.000010444897593*N35^2-0.00054383241282*N35+0.017557582729184,5)</f>
-        <v>9.6900000000000007E-3</v>
+        <v>7.5199999999999998E-3</v>
       </c>
       <c r="V35" s="12">
         <f t="shared" ref="V35:V49" si="9">ROUND( (30*U35/980/(GS-T35)*S35/L35)^0.5,5)</f>
-        <v>7.3819999999999997E-2</v>
+        <v>6.7750000000000005E-2</v>
       </c>
       <c r="AC35" s="24"/>
       <c r="AD35" s="24"/>
@@ -9269,49 +9567,52 @@
       <c r="AI35" s="24"/>
       <c r="AJ35" s="22"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J36" s="26"/>
-      <c r="K36" s="187"/>
+      <c r="K36" s="233"/>
       <c r="L36" s="26">
+        <f>'input-output'!E6</f>
         <v>0.5</v>
       </c>
       <c r="M36" s="26">
-        <v>50.5</v>
+        <f>'input-output'!F6</f>
+        <v>43.5</v>
       </c>
       <c r="N36" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G6</f>
+        <v>31</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="2"/>
-        <v>48.3</v>
+        <v>45.6</v>
       </c>
       <c r="P36" s="27">
         <f t="shared" si="3"/>
-        <v>94.714368000000007</v>
+        <v>89.799167999999995</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" si="4"/>
-        <v>80.03364096</v>
+        <v>87.105192959999982</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S36" s="11">
         <f t="shared" si="6"/>
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="T36" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V36" s="12">
         <f t="shared" si="9"/>
-        <v>5.2839999999999998E-2</v>
+        <v>5.1150000000000001E-2</v>
       </c>
       <c r="AC36" s="24"/>
       <c r="AD36" s="24"/>
@@ -9322,49 +9623,52 @@
       <c r="AI36" s="24"/>
       <c r="AJ36" s="22"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J37" s="26"/>
-      <c r="K37" s="187"/>
+      <c r="K37" s="233"/>
       <c r="L37" s="26">
+        <f>'input-output'!E7</f>
         <v>1</v>
       </c>
       <c r="M37" s="26">
-        <v>48</v>
+        <f>'input-output'!F7</f>
+        <v>38</v>
       </c>
       <c r="N37" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G7</f>
+        <v>31</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="2"/>
-        <v>45.8</v>
+        <v>40.1</v>
       </c>
       <c r="P37" s="27">
         <f t="shared" si="3"/>
-        <v>89.811967999999993</v>
+        <v>78.968128000000007</v>
       </c>
       <c r="Q37" s="27">
         <f t="shared" si="4"/>
-        <v>75.891112959999987</v>
+        <v>76.599084160000018</v>
       </c>
       <c r="R37" s="11">
         <f t="shared" si="5"/>
-        <v>48.5</v>
+        <v>38.5</v>
       </c>
       <c r="S37" s="11">
         <f t="shared" si="6"/>
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="T37" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U37" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V37" s="12">
         <f t="shared" si="9"/>
-        <v>3.8269999999999998E-2</v>
+        <v>3.7859999999999998E-2</v>
       </c>
       <c r="AC37" s="24"/>
       <c r="AD37" s="24"/>
@@ -9375,49 +9679,52 @@
       <c r="AI37" s="24"/>
       <c r="AJ37" s="22"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J38" s="26"/>
-      <c r="K38" s="187"/>
+      <c r="K38" s="233"/>
       <c r="L38" s="26">
+        <f>'input-output'!E8</f>
         <v>2</v>
       </c>
       <c r="M38" s="26">
-        <v>45.5</v>
+        <f>'input-output'!F8</f>
+        <v>34</v>
       </c>
       <c r="N38" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G8</f>
+        <v>31</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="2"/>
-        <v>43.3</v>
+        <v>36.1</v>
       </c>
       <c r="P38" s="27">
         <f t="shared" si="3"/>
-        <v>84.909568000000007</v>
+        <v>71.091008000000002</v>
       </c>
       <c r="Q38" s="27">
         <f t="shared" si="4"/>
-        <v>71.748584960000002</v>
+        <v>68.958277760000001</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>34.5</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10.9</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V38" s="12">
         <f t="shared" si="9"/>
-        <v>2.768E-2</v>
+        <v>2.7539999999999999E-2</v>
       </c>
       <c r="AC38" s="24"/>
       <c r="AD38" s="24"/>
@@ -9428,49 +9735,52 @@
       <c r="AI38" s="24"/>
       <c r="AJ38" s="22"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J39" s="26"/>
-      <c r="K39" s="187"/>
+      <c r="K39" s="233"/>
       <c r="L39" s="26">
+        <f>'input-output'!E9</f>
         <v>4</v>
       </c>
       <c r="M39" s="26">
-        <v>42.5</v>
+        <f>'input-output'!F9</f>
+        <v>29</v>
       </c>
       <c r="N39" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G9</f>
+        <v>31</v>
       </c>
       <c r="O39" s="11">
         <f t="shared" si="2"/>
-        <v>40.299999999999997</v>
+        <v>31.1</v>
       </c>
       <c r="P39" s="27">
         <f t="shared" si="3"/>
-        <v>79.026688000000007</v>
+        <v>61.244607999999999</v>
       </c>
       <c r="Q39" s="27">
         <f t="shared" si="4"/>
-        <v>66.777551360000004</v>
+        <v>59.407269759999998</v>
       </c>
       <c r="R39" s="11">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>29.5</v>
       </c>
       <c r="S39" s="11">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="T39" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U39" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V39" s="12">
         <f t="shared" si="9"/>
-        <v>2.0109999999999999E-2</v>
+        <v>2.018E-2</v>
       </c>
       <c r="AC39" s="24"/>
       <c r="AD39" s="24"/>
@@ -9481,50 +9791,53 @@
       <c r="AI39" s="24"/>
       <c r="AJ39" s="22"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="187"/>
+      <c r="K40" s="233"/>
       <c r="L40" s="26">
+        <f>'input-output'!E10</f>
         <v>8</v>
       </c>
       <c r="M40" s="26">
-        <v>40</v>
+        <f>'input-output'!F10</f>
+        <v>24</v>
       </c>
       <c r="N40" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G10</f>
+        <v>31</v>
       </c>
       <c r="O40" s="11">
         <f t="shared" si="2"/>
-        <v>37.799999999999997</v>
+        <v>26.1</v>
       </c>
       <c r="P40" s="27">
         <f t="shared" si="3"/>
-        <v>74.124287999999993</v>
+        <v>51.398208000000004</v>
       </c>
       <c r="Q40" s="27">
         <f t="shared" si="4"/>
-        <v>62.635023359999998</v>
+        <v>49.85626176000001</v>
       </c>
       <c r="R40" s="11">
         <f t="shared" si="5"/>
-        <v>40.5</v>
+        <v>24.5</v>
       </c>
       <c r="S40" s="11">
         <f t="shared" si="6"/>
-        <v>9.9</v>
+        <v>12.6</v>
       </c>
       <c r="T40" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U40" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V40" s="12">
         <f t="shared" si="9"/>
-        <v>1.452E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="AC40" s="24"/>
       <c r="AD40" s="24"/>
@@ -9535,50 +9848,53 @@
       <c r="AI40" s="24"/>
       <c r="AJ40" s="22"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="187"/>
+      <c r="K41" s="233"/>
       <c r="L41" s="26">
+        <f>'input-output'!E11</f>
         <v>15</v>
       </c>
       <c r="M41" s="26">
-        <v>37</v>
+        <f>'input-output'!F11</f>
+        <v>20</v>
       </c>
       <c r="N41" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G11</f>
+        <v>31</v>
       </c>
       <c r="O41" s="11">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <v>22.1</v>
       </c>
       <c r="P41" s="27">
         <f t="shared" si="3"/>
-        <v>68.241407999999993</v>
+        <v>43.521087999999999</v>
       </c>
       <c r="Q41" s="27">
         <f t="shared" si="4"/>
-        <v>57.663989759999993</v>
+        <v>42.215455359999993</v>
       </c>
       <c r="R41" s="11">
         <f t="shared" si="5"/>
-        <v>37.5</v>
+        <v>20.5</v>
       </c>
       <c r="S41" s="11">
         <f t="shared" si="6"/>
-        <v>10.4</v>
+        <v>13.2</v>
       </c>
       <c r="T41" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U41" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V41" s="12">
         <f t="shared" si="9"/>
-        <v>1.0869999999999999E-2</v>
+        <v>1.107E-2</v>
       </c>
       <c r="AC41" s="24"/>
       <c r="AD41" s="24"/>
@@ -9589,51 +9905,54 @@
       <c r="AI41" s="24"/>
       <c r="AJ41" s="22"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="G42" s="7"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="187"/>
+      <c r="K42" s="233"/>
       <c r="L42" s="26">
+        <f>'input-output'!E12</f>
         <v>30</v>
       </c>
       <c r="M42" s="26">
-        <v>34</v>
+        <f>'input-output'!F12</f>
+        <v>17</v>
       </c>
       <c r="N42" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G12</f>
+        <v>31</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" si="2"/>
-        <v>31.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P42" s="27">
         <f t="shared" si="3"/>
-        <v>62.358528</v>
+        <v>37.613247999999999</v>
       </c>
       <c r="Q42" s="27">
         <f t="shared" si="4"/>
-        <v>52.692956160000001</v>
+        <v>36.484850559999998</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" si="5"/>
-        <v>34.5</v>
+        <v>17.5</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" si="6"/>
-        <v>10.9</v>
+        <v>13.7</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V42" s="12">
         <f t="shared" si="9"/>
-        <v>7.8700000000000003E-3</v>
+        <v>7.9699999999999997E-3</v>
       </c>
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
@@ -9644,49 +9963,52 @@
       <c r="AI42" s="24"/>
       <c r="AJ42" s="22"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J43" s="26"/>
-      <c r="K43" s="187"/>
+      <c r="K43" s="233"/>
       <c r="L43" s="26">
+        <f>'input-output'!E13</f>
         <v>60</v>
       </c>
       <c r="M43" s="26">
-        <v>32</v>
+        <f>'input-output'!F13</f>
+        <v>14</v>
       </c>
       <c r="N43" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G13</f>
+        <v>31</v>
       </c>
       <c r="O43" s="11">
         <f t="shared" si="2"/>
-        <v>29.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P43" s="27">
         <f t="shared" si="3"/>
-        <v>58.436608</v>
+        <v>31.705408000000002</v>
       </c>
       <c r="Q43" s="27">
         <f t="shared" si="4"/>
-        <v>49.378933760000002</v>
+        <v>30.754245760000003</v>
       </c>
       <c r="R43" s="11">
         <f t="shared" si="5"/>
-        <v>32.5</v>
+        <v>14.5</v>
       </c>
       <c r="S43" s="11">
         <f t="shared" si="6"/>
-        <v>11.3</v>
+        <v>14.2</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U43" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V43" s="12">
         <f t="shared" si="9"/>
-        <v>5.6600000000000001E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="AC43" s="24"/>
       <c r="AD43" s="24"/>
@@ -9697,7 +10019,7 @@
       <c r="AI43" s="24"/>
       <c r="AJ43" s="22"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="80" t="s">
         <v>88</v>
       </c>
@@ -9710,47 +10032,50 @@
         <v>89</v>
       </c>
       <c r="J44" s="26"/>
-      <c r="K44" s="187"/>
+      <c r="K44" s="233"/>
       <c r="L44" s="26">
+        <f>'input-output'!E14</f>
         <v>120</v>
       </c>
       <c r="M44" s="26">
-        <v>30</v>
+        <f>'input-output'!F14</f>
+        <v>11.5</v>
       </c>
       <c r="N44" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G14</f>
+        <v>31</v>
       </c>
       <c r="O44" s="11">
         <f t="shared" si="2"/>
-        <v>27.8</v>
+        <v>13.6</v>
       </c>
       <c r="P44" s="27">
         <f t="shared" si="3"/>
-        <v>54.514688000000014</v>
+        <v>26.782208000000001</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" si="4"/>
-        <v>46.064911360000018</v>
+        <v>25.978741760000002</v>
       </c>
       <c r="R44" s="11">
         <f t="shared" si="5"/>
-        <v>30.5</v>
+        <v>12</v>
       </c>
       <c r="S44" s="11">
         <f t="shared" si="6"/>
-        <v>11.6</v>
+        <v>14.6</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U44" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="9"/>
-        <v>4.0600000000000002E-3</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="AC44" s="24"/>
       <c r="AD44" s="24"/>
@@ -9761,49 +10086,52 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="22"/>
     </row>
-    <row r="45" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="26"/>
-      <c r="K45" s="187"/>
+      <c r="K45" s="233"/>
       <c r="L45" s="26">
+        <f>'input-output'!E15</f>
         <v>240</v>
       </c>
       <c r="M45" s="26">
-        <v>28.5</v>
+        <f>'input-output'!F15</f>
+        <v>10</v>
       </c>
       <c r="N45" s="26">
-        <v>21.5</v>
+        <f>'input-output'!G15</f>
+        <v>31</v>
       </c>
       <c r="O45" s="11">
         <f t="shared" si="2"/>
-        <v>26.3</v>
+        <v>12.1</v>
       </c>
       <c r="P45" s="27">
         <f t="shared" si="3"/>
-        <v>51.573248000000007</v>
+        <v>23.828287999999997</v>
       </c>
       <c r="Q45" s="27">
         <f t="shared" si="4"/>
-        <v>43.579394560000011</v>
+        <v>23.113439359999997</v>
       </c>
       <c r="R45" s="11">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="S45" s="11">
         <f t="shared" si="6"/>
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="T45" s="11">
         <f t="shared" si="7"/>
-        <v>0.99790999999999996</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U45" s="11">
         <f t="shared" si="8"/>
-        <v>9.6900000000000007E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V45" s="12">
         <f t="shared" si="9"/>
-        <v>2.8900000000000002E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="AC45" s="24"/>
       <c r="AD45" s="24"/>
@@ -9814,49 +10142,52 @@
       <c r="AI45" s="24"/>
       <c r="AJ45" s="22"/>
     </row>
-    <row r="46" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J46" s="26"/>
-      <c r="K46" s="187"/>
+      <c r="K46" s="233"/>
       <c r="L46" s="26">
+        <f>'input-output'!E16</f>
         <v>480</v>
       </c>
       <c r="M46" s="26">
-        <v>27</v>
+        <f>'input-output'!F16</f>
+        <v>9.5</v>
       </c>
       <c r="N46" s="26">
-        <v>22</v>
+        <f>'input-output'!G16</f>
+        <v>31</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>11.6</v>
       </c>
       <c r="P46" s="27">
         <f t="shared" si="3"/>
-        <v>48.827903999999997</v>
+        <v>22.843647999999998</v>
       </c>
       <c r="Q46" s="27">
         <f t="shared" si="4"/>
-        <v>41.259578879999999</v>
+        <v>22.158338559999997</v>
       </c>
       <c r="R46" s="11">
         <f t="shared" si="5"/>
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="S46" s="11">
         <f t="shared" si="6"/>
-        <v>12.1</v>
+        <v>14.9</v>
       </c>
       <c r="T46" s="11">
         <f t="shared" si="7"/>
-        <v>0.99780000000000002</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U46" s="11">
         <f t="shared" si="8"/>
-        <v>9.58E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V46" s="12">
         <f t="shared" si="9"/>
-        <v>2.0600000000000002E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="AC46" s="24"/>
       <c r="AD46" s="24"/>
@@ -9867,7 +10198,7 @@
       <c r="AI46" s="24"/>
       <c r="AJ46" s="22"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="100" t="s">
         <v>153</v>
       </c>
@@ -9879,44 +10210,46 @@
       <c r="H47" s="101"/>
       <c r="I47" s="101"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="187"/>
+      <c r="K47" s="233"/>
       <c r="L47" s="26">
-        <f>15*60+44+L46</f>
-        <v>1424</v>
+        <f>'input-output'!E17</f>
+        <v>1434</v>
       </c>
       <c r="M47" s="26">
-        <v>26</v>
+        <f>'input-output'!F17</f>
+        <v>7.5</v>
       </c>
       <c r="N47" s="26">
-        <v>21</v>
+        <f>'input-output'!G17</f>
+        <v>31</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="2"/>
-        <v>23.7</v>
+        <v>9.6</v>
       </c>
       <c r="P47" s="27">
         <f t="shared" si="3"/>
-        <v>46.474751999999995</v>
+        <v>18.905087999999999</v>
       </c>
       <c r="Q47" s="27">
         <f t="shared" si="4"/>
-        <v>39.271165439999997</v>
+        <v>18.337935359999999</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="5"/>
-        <v>26.5</v>
+        <v>8</v>
       </c>
       <c r="S47" s="11">
         <f t="shared" si="6"/>
-        <v>12.2</v>
+        <v>15.3</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="7"/>
-        <v>0.99802000000000002</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U47" s="11">
         <f t="shared" si="8"/>
-        <v>9.8099999999999993E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="V47" s="107">
         <f t="shared" si="9"/>
@@ -9926,7 +10259,7 @@
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="X47" s="189" t="s">
+      <c r="X47" s="235" t="s">
         <v>104</v>
       </c>
       <c r="AC47" s="24"/>
@@ -9938,7 +10271,7 @@
       <c r="AI47" s="24"/>
       <c r="AJ47" s="22"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="102" t="s">
         <v>92</v>
       </c>
@@ -9950,53 +10283,55 @@
       <c r="H48" s="101"/>
       <c r="I48" s="101"/>
       <c r="J48" s="77"/>
-      <c r="K48" s="187"/>
+      <c r="K48" s="233"/>
       <c r="L48" s="26">
-        <f>26*60+8+L47</f>
-        <v>2992</v>
+        <f>'input-output'!E18</f>
+        <v>2865</v>
       </c>
       <c r="M48" s="26">
-        <v>24.5</v>
+        <f>'input-output'!F18</f>
+        <v>6.5</v>
       </c>
       <c r="N48" s="26">
-        <v>21</v>
+        <f>'input-output'!G18</f>
+        <v>32</v>
       </c>
       <c r="O48" s="11">
         <f t="shared" si="2"/>
-        <v>22.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P48" s="27">
         <f t="shared" si="3"/>
-        <v>43.533312000000002</v>
+        <v>19.102015999999995</v>
       </c>
       <c r="Q48" s="27">
         <f t="shared" si="4"/>
-        <v>36.785648640000005</v>
+        <v>18.528955519999997</v>
       </c>
       <c r="R48" s="11">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="S48" s="11">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>15.4</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" si="7"/>
-        <v>0.99802000000000002</v>
+        <v>0.99504999999999999</v>
       </c>
       <c r="U48" s="11">
         <f t="shared" si="8"/>
-        <v>9.8099999999999993E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="V48" s="107">
         <f t="shared" si="9"/>
-        <v>8.4999999999999995E-4</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="W48" s="109">
         <v>2880</v>
       </c>
-      <c r="X48" s="190"/>
+      <c r="X48" s="236"/>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
       <c r="AE48" s="51"/>
@@ -10006,7 +10341,7 @@
       <c r="AI48" s="24"/>
       <c r="AJ48" s="22"/>
     </row>
-    <row r="49" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="102" t="s">
         <v>90</v>
       </c>
@@ -10018,53 +10353,55 @@
       <c r="H49" s="101"/>
       <c r="I49" s="101"/>
       <c r="J49" s="77"/>
-      <c r="K49" s="188"/>
+      <c r="K49" s="234"/>
       <c r="L49" s="26">
-        <f>21*60+L48+49</f>
-        <v>4301</v>
+        <f>'input-output'!E19</f>
+        <v>4306</v>
       </c>
       <c r="M49" s="26">
-        <v>24</v>
+        <f>'input-output'!F19</f>
+        <v>6</v>
       </c>
       <c r="N49" s="26">
-        <v>21</v>
+        <f>'input-output'!G19</f>
+        <v>32</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="2"/>
-        <v>21.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P49" s="27">
         <f t="shared" si="3"/>
-        <v>42.552832000000002</v>
+        <v>18.117376</v>
       </c>
       <c r="Q49" s="27">
         <f t="shared" si="4"/>
-        <v>35.957143039999998</v>
+        <v>17.57385472</v>
       </c>
       <c r="R49" s="11">
         <f t="shared" si="5"/>
-        <v>24.5</v>
+        <v>6.5</v>
       </c>
       <c r="S49" s="11">
         <f t="shared" si="6"/>
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="T49" s="11">
         <f t="shared" si="7"/>
-        <v>0.99802000000000002</v>
+        <v>0.99504999999999999</v>
       </c>
       <c r="U49" s="11">
         <f t="shared" si="8"/>
-        <v>9.8099999999999993E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="V49" s="107">
         <f t="shared" si="9"/>
-        <v>7.1000000000000002E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="W49" s="110">
         <v>4320</v>
       </c>
-      <c r="X49" s="191"/>
+      <c r="X49" s="237"/>
       <c r="AC49" s="24"/>
       <c r="AD49" s="24"/>
       <c r="AE49" s="51"/>
@@ -10074,7 +10411,7 @@
       <c r="AI49" s="24"/>
       <c r="AJ49" s="22"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="102" t="s">
         <v>91</v>
       </c>
@@ -10103,7 +10440,7 @@
       <c r="AI50" s="24"/>
       <c r="AJ50" s="22"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J51" s="1" t="s">
         <v>70</v>
       </c>
@@ -10116,14 +10453,14 @@
       <c r="AE51" s="34"/>
       <c r="AF51" s="34"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="J52" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P52" s="72">
         <f>ROUND(V27*1.65/(V27-1)/2.65,5)</f>
-        <v>0.98048000000000002</v>
+        <v>0.98463999999999996</v>
       </c>
       <c r="R52" s="24"/>
       <c r="S52" s="51"/>
@@ -10135,7 +10472,7 @@
       <c r="AD52" s="34"/>
       <c r="AE52" s="34"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="AB53" s="24"/>
       <c r="AC53" s="51"/>
@@ -10148,7 +10485,7 @@
       <c r="AJ53" s="34"/>
       <c r="AK53" s="34"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="E54" s="83"/>
       <c r="J54" s="78" t="s">
@@ -10165,7 +10502,7 @@
       <c r="AJ54" s="34"/>
       <c r="AK54" s="34"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="J55" t="s">
         <v>85</v>
@@ -10181,7 +10518,7 @@
       <c r="AJ55" s="34"/>
       <c r="AK55" s="34"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="AB56" s="24"/>
       <c r="AC56" s="51"/>
@@ -10194,7 +10531,7 @@
       <c r="AJ56" s="34"/>
       <c r="AK56" s="34"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB57" s="34"/>
       <c r="AC57" s="34"/>
       <c r="AD57" s="24"/>
@@ -10208,7 +10545,7 @@
       <c r="AL57" s="34"/>
       <c r="AM57" s="34"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
         <v>88</v>
       </c>
@@ -10226,7 +10563,7 @@
       <c r="AJ58" s="34"/>
       <c r="AK58" s="34"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB59" s="24"/>
       <c r="AC59" s="51"/>
       <c r="AD59" s="24"/>
@@ -10238,7 +10575,7 @@
       <c r="AJ59" s="34"/>
       <c r="AK59" s="34"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB60" s="24"/>
       <c r="AC60" s="51"/>
       <c r="AD60" s="24"/>
@@ -10250,7 +10587,7 @@
       <c r="AJ60" s="34"/>
       <c r="AK60" s="34"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB61" s="34"/>
       <c r="AC61" s="24"/>
       <c r="AD61" s="34"/>
@@ -10262,7 +10599,7 @@
       <c r="AJ61" s="34"/>
       <c r="AK61" s="34"/>
     </row>
-    <row r="62" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB62" s="34"/>
       <c r="AC62" s="34"/>
       <c r="AD62" s="34"/>
@@ -10273,13 +10610,13 @@
       <c r="AJ62" s="34"/>
       <c r="AK62" s="34"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B63" s="135" t="s">
+    <row r="63" spans="1:39" ht="13" x14ac:dyDescent="0.3">
+      <c r="B63" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="117"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="116"/>
       <c r="J63" s="10" t="s">
         <v>9</v>
       </c>
@@ -10289,13 +10626,14 @@
       <c r="AJ63" s="34"/>
       <c r="AK63" s="34"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B64" s="118" t="s">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B64" s="117" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
-      <c r="E64" s="171">
+      <c r="E64" s="170">
+        <f>'input-output'!L7</f>
         <v>7</v>
       </c>
       <c r="J64" s="15" t="s">
@@ -10313,14 +10651,15 @@
       <c r="AJ64" s="34"/>
       <c r="AK64" s="34"/>
     </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B65" s="120" t="s">
+    <row r="65" spans="2:37" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="119" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
-      <c r="E65" s="121">
-        <v>372.7</v>
+      <c r="E65" s="120">
+        <f>'input-output'!L8</f>
+        <v>371.9</v>
       </c>
       <c r="J65" s="73" t="s">
         <v>83</v>
@@ -10337,14 +10676,15 @@
       <c r="AJ65" s="34"/>
       <c r="AK65" s="34"/>
     </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B66" s="120" t="s">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B66" s="119" t="s">
         <v>23</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
-      <c r="E66" s="121">
-        <v>21</v>
+      <c r="E66" s="120">
+        <f>'input-output'!L9</f>
+        <v>31</v>
       </c>
       <c r="J66" s="12">
         <v>4</v>
@@ -10359,14 +10699,15 @@
       <c r="AI66" s="34"/>
       <c r="AJ66" s="34"/>
     </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B67" s="120" t="s">
+    <row r="67" spans="2:37" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="119" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="121">
-        <v>341</v>
+      <c r="E67" s="120">
+        <f>'input-output'!L10</f>
+        <v>340.4</v>
       </c>
       <c r="J67" s="12">
         <v>16</v>
@@ -10384,14 +10725,15 @@
       <c r="AI67" s="34"/>
       <c r="AJ67" s="34"/>
     </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B68" s="120" t="s">
+    <row r="68" spans="2:37" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="119" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="121">
-        <v>49.9</v>
+      <c r="E68" s="120">
+        <f>'input-output'!L11</f>
+        <v>49.7</v>
       </c>
       <c r="J68" s="12">
         <v>17</v>
@@ -10409,15 +10751,15 @@
       <c r="AI68" s="34"/>
       <c r="AJ68" s="34"/>
     </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B69" s="122" t="s">
+    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B69" s="121" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="119">
-        <f>ROUND(-0.000005006464124*E66^2-0.00000484550743*E66+1.00033065352292,5)</f>
-        <v>0.99802000000000002</v>
+      <c r="E69" s="118">
+        <f>'input-output'!L12</f>
+        <v>0.99536999999999998</v>
       </c>
       <c r="J69" s="12">
         <v>18</v>
@@ -10430,15 +10772,15 @@
         <v>0.99861999999999995</v>
       </c>
     </row>
-    <row r="70" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="123" t="s">
+    <row r="70" spans="2:37" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125">
-        <f>MROUND((E69*E68)/(E68-E65+E67),0.01)</f>
-        <v>2.74</v>
+      <c r="C70" s="123"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124">
+        <f>'input-output'!L13</f>
+        <v>2.72</v>
       </c>
       <c r="J70" s="12">
         <v>19</v>
@@ -10451,7 +10793,7 @@
         <v>0.99843000000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J71" s="12">
         <v>20</v>
       </c>
@@ -10463,7 +10805,7 @@
         <v>0.99822999999999995</v>
       </c>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J72" s="12">
         <v>21</v>
       </c>
@@ -10476,7 +10818,7 @@
       </c>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J73" s="12">
         <v>22</v>
       </c>
@@ -10488,7 +10830,7 @@
         <v>0.99780000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J74" s="12">
         <v>23</v>
       </c>
@@ -10500,11 +10842,11 @@
         <v>0.99756999999999996</v>
       </c>
     </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B75" s="192" t="s">
+    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B75" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="193"/>
+      <c r="C75" s="239"/>
       <c r="J75" s="12">
         <v>24</v>
       </c>
@@ -10516,9 +10858,9 @@
         <v>0.99733000000000005</v>
       </c>
     </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B76" s="194"/>
-      <c r="C76" s="195"/>
+    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B76" s="240"/>
+      <c r="C76" s="241"/>
       <c r="J76" s="12">
         <v>25</v>
       </c>
@@ -10530,11 +10872,11 @@
         <v>0.99707999999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B77" s="126" t="s">
+    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B77" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="127" t="s">
+      <c r="C77" s="126" t="s">
         <v>105</v>
       </c>
       <c r="J77" s="12">
@@ -10548,11 +10890,11 @@
         <v>0.99682000000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B78" s="128" t="s">
+    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B78" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="129"/>
+      <c r="C78" s="128"/>
       <c r="J78" s="12">
         <v>27</v>
       </c>
@@ -10564,13 +10906,13 @@
         <v>0.99655000000000005</v>
       </c>
     </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B79" s="128">
+    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B79" s="127">
         <f t="shared" ref="B79:B85" si="11">K15</f>
         <v>4.75</v>
       </c>
-      <c r="C79" s="130">
-        <f t="shared" ref="C79:C85" si="12">O15</f>
+      <c r="C79" s="129">
+        <f t="shared" ref="C79:C84" si="12">O15</f>
         <v>100</v>
       </c>
       <c r="J79" s="12">
@@ -10584,12 +10926,12 @@
         <v>0.99626999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B80" s="128">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B80" s="127">
         <f t="shared" si="11"/>
         <v>2.36</v>
       </c>
-      <c r="C80" s="130">
+      <c r="C80" s="129">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
@@ -10604,12 +10946,12 @@
         <v>0.99597999999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B81" s="128">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B81" s="127">
         <f t="shared" si="11"/>
         <v>1.18</v>
       </c>
-      <c r="C81" s="130">
+      <c r="C81" s="129">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
@@ -10624,37 +10966,37 @@
         <v>0.99568000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B82" s="128">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B82" s="127">
         <f t="shared" si="11"/>
         <v>0.6</v>
       </c>
-      <c r="C82" s="130">
+      <c r="C82" s="129">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B83" s="128">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B83" s="127">
         <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
-      <c r="C83" s="130">
+      <c r="C83" s="129">
         <f t="shared" si="12"/>
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="128">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B84" s="127">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="C84" s="130">
+      <c r="C84" s="129">
         <f t="shared" si="12"/>
-        <v>89.2</v>
+        <v>99.4</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>7</v>
@@ -10666,16 +11008,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="45" x14ac:dyDescent="0.2">
-      <c r="B85" s="128">
+    <row r="85" spans="2:30" ht="32.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="127">
         <f t="shared" si="11"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C85" s="130">
-        <f t="shared" si="12"/>
-        <v>84.5</v>
-      </c>
-      <c r="E85" s="168" t="s">
+      <c r="C85" s="184">
+        <f>O21</f>
+        <v>97</v>
+      </c>
+      <c r="E85" s="167" t="s">
         <v>141</v>
       </c>
       <c r="J85" s="58"/>
@@ -10686,14 +11028,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B86" s="131">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B86" s="130">
         <f>V36</f>
-        <v>5.2839999999999998E-2</v>
-      </c>
-      <c r="C86" s="132">
+        <v>5.1150000000000001E-2</v>
+      </c>
+      <c r="C86" s="131">
         <f>Q36</f>
-        <v>80.03364096</v>
+        <v>87.105192959999982</v>
       </c>
       <c r="F86" s="55"/>
       <c r="J86" s="12">
@@ -10704,14 +11046,14 @@
       </c>
       <c r="L86" s="60"/>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B87" s="131">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B87" s="130">
         <f t="shared" ref="B87:B99" si="13">V37</f>
-        <v>3.8269999999999998E-2</v>
-      </c>
-      <c r="C87" s="132">
+        <v>3.7859999999999998E-2</v>
+      </c>
+      <c r="C87" s="131">
         <f t="shared" ref="C87:C99" si="14">Q37</f>
-        <v>75.891112959999987</v>
+        <v>76.599084160000018</v>
       </c>
       <c r="F87" s="55"/>
       <c r="J87" s="12">
@@ -10725,14 +11067,14 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B88" s="131">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B88" s="130">
         <f t="shared" si="13"/>
-        <v>2.768E-2</v>
-      </c>
-      <c r="C88" s="132">
+        <v>2.7539999999999999E-2</v>
+      </c>
+      <c r="C88" s="131">
         <f t="shared" si="14"/>
-        <v>71.748584960000002</v>
+        <v>68.958277760000001</v>
       </c>
       <c r="F88" s="55"/>
       <c r="J88" s="12">
@@ -10746,14 +11088,14 @@
         <v>1.0829999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B89" s="131">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B89" s="130">
         <f t="shared" si="13"/>
-        <v>2.0109999999999999E-2</v>
-      </c>
-      <c r="C89" s="132">
+        <v>2.018E-2</v>
+      </c>
+      <c r="C89" s="131">
         <f t="shared" si="14"/>
-        <v>66.777551360000004</v>
+        <v>59.407269759999998</v>
       </c>
       <c r="F89" s="55"/>
       <c r="J89" s="12">
@@ -10767,14 +11109,14 @@
         <v>1.056E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B90" s="131">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B90" s="130">
         <f t="shared" si="13"/>
-        <v>1.452E-2</v>
-      </c>
-      <c r="C90" s="132">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="C90" s="131">
         <f t="shared" si="14"/>
-        <v>62.635023359999998</v>
+        <v>49.85626176000001</v>
       </c>
       <c r="F90" s="55"/>
       <c r="J90" s="12">
@@ -10793,14 +11135,14 @@
       <c r="AC90" s="34"/>
       <c r="AD90" s="34"/>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B91" s="131">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B91" s="130">
         <f t="shared" si="13"/>
-        <v>1.0869999999999999E-2</v>
-      </c>
-      <c r="C91" s="132">
+        <v>1.107E-2</v>
+      </c>
+      <c r="C91" s="131">
         <f t="shared" si="14"/>
-        <v>57.663989759999993</v>
+        <v>42.215455359999993</v>
       </c>
       <c r="F91" s="55"/>
       <c r="J91" s="12">
@@ -10819,14 +11161,14 @@
       <c r="AC91" s="34"/>
       <c r="AD91" s="34"/>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B92" s="131">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B92" s="130">
         <f t="shared" si="13"/>
-        <v>7.8700000000000003E-3</v>
-      </c>
-      <c r="C92" s="132">
+        <v>7.9699999999999997E-3</v>
+      </c>
+      <c r="C92" s="131">
         <f t="shared" si="14"/>
-        <v>52.692956160000001</v>
+        <v>36.484850559999998</v>
       </c>
       <c r="F92" s="55"/>
       <c r="J92" s="12">
@@ -10845,14 +11187,14 @@
       <c r="AC92" s="34"/>
       <c r="AD92" s="34"/>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B93" s="131">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B93" s="130">
         <f t="shared" si="13"/>
-        <v>5.6600000000000001E-3</v>
-      </c>
-      <c r="C93" s="132">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="C93" s="131">
         <f t="shared" si="14"/>
-        <v>49.378933760000002</v>
+        <v>30.754245760000003</v>
       </c>
       <c r="F93" s="55"/>
       <c r="J93" s="12">
@@ -10872,14 +11214,14 @@
       <c r="AC93" s="34"/>
       <c r="AD93" s="34"/>
     </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B94" s="131">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B94" s="130">
         <f t="shared" si="13"/>
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="C94" s="132">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="C94" s="131">
         <f t="shared" si="14"/>
-        <v>46.064911360000018</v>
+        <v>25.978741760000002</v>
       </c>
       <c r="D94" s="83"/>
       <c r="F94" s="55"/>
@@ -10900,14 +11242,14 @@
       <c r="AC94" s="34"/>
       <c r="AD94" s="34"/>
     </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B95" s="131">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B95" s="130">
         <f t="shared" si="13"/>
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="C95" s="132">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="C95" s="131">
         <f t="shared" si="14"/>
-        <v>43.579394560000011</v>
+        <v>23.113439359999997</v>
       </c>
       <c r="F95" s="55"/>
       <c r="J95" s="12">
@@ -10926,14 +11268,14 @@
       <c r="AC95" s="34"/>
       <c r="AD95" s="34"/>
     </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B96" s="131">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B96" s="130">
         <f t="shared" si="13"/>
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="C96" s="132">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="C96" s="131">
         <f t="shared" si="14"/>
-        <v>41.259578879999999</v>
+        <v>22.158338559999997</v>
       </c>
       <c r="F96" s="55"/>
       <c r="J96" s="12">
@@ -10952,14 +11294,14 @@
       <c r="AC96" s="34"/>
       <c r="AD96" s="34"/>
     </row>
-    <row r="97" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B97" s="131">
+    <row r="97" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B97" s="130">
         <f>V47</f>
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="C97" s="132">
+      <c r="C97" s="131">
         <f t="shared" si="14"/>
-        <v>39.271165439999997</v>
+        <v>18.337935359999999</v>
       </c>
       <c r="F97" s="55"/>
       <c r="J97" s="12">
@@ -10978,14 +11320,14 @@
       <c r="AI97" s="34"/>
       <c r="AJ97" s="34"/>
     </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B98" s="131">
+    <row r="98" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B98" s="130">
         <f t="shared" si="13"/>
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="C98" s="132">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="C98" s="131">
         <f t="shared" si="14"/>
-        <v>36.785648640000005</v>
+        <v>18.528955519999997</v>
       </c>
       <c r="F98" s="55"/>
       <c r="J98" s="12">
@@ -11004,14 +11346,14 @@
       <c r="AI98" s="34"/>
       <c r="AJ98" s="34"/>
     </row>
-    <row r="99" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="133">
+    <row r="99" spans="2:37" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="132">
         <f t="shared" si="13"/>
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="C99" s="134">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C99" s="133">
         <f t="shared" si="14"/>
-        <v>35.957143039999998</v>
+        <v>17.57385472</v>
       </c>
       <c r="F99" s="55"/>
       <c r="J99" s="12">
@@ -11031,7 +11373,7 @@
       <c r="AI99" s="34"/>
       <c r="AJ99" s="34"/>
     </row>
-    <row r="100" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B100" s="24"/>
       <c r="C100" s="51"/>
       <c r="J100" s="12">
@@ -11050,9 +11392,9 @@
       <c r="AI100" s="34"/>
       <c r="AJ100" s="34"/>
     </row>
-    <row r="101" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B101" s="24"/>
-      <c r="C101" s="114"/>
+      <c r="C101" s="113"/>
       <c r="J101" s="12">
         <v>30</v>
       </c>
@@ -11069,14 +11411,14 @@
       <c r="AI101" s="34"/>
       <c r="AJ101" s="34"/>
     </row>
-    <row r="102" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:37" x14ac:dyDescent="0.25">
       <c r="AF102" s="34"/>
       <c r="AG102" s="34"/>
       <c r="AH102" s="34"/>
       <c r="AI102" s="34"/>
       <c r="AJ102" s="34"/>
     </row>
-    <row r="103" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:37" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J103" s="10" t="s">
         <v>74</v>
       </c>
@@ -11086,7 +11428,7 @@
       <c r="AI103" s="34"/>
       <c r="AJ103" s="34"/>
     </row>
-    <row r="104" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J104" s="68" t="s">
         <v>1</v>
       </c>
@@ -11100,7 +11442,7 @@
       <c r="AI104" s="34"/>
       <c r="AJ104" s="34"/>
     </row>
-    <row r="105" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:37" ht="13.5" x14ac:dyDescent="0.35">
       <c r="J105" s="69" t="s">
         <v>80</v>
       </c>
@@ -11116,7 +11458,7 @@
       <c r="AI105" s="34"/>
       <c r="AJ105" s="34"/>
     </row>
-    <row r="106" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J106" s="12">
         <v>15</v>
       </c>
@@ -11133,7 +11475,7 @@
       <c r="AJ106" s="34"/>
       <c r="AK106" s="34"/>
     </row>
-    <row r="107" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J107" s="12">
         <v>16</v>
       </c>
@@ -11150,7 +11492,7 @@
       <c r="AJ107" s="34"/>
       <c r="AK107" s="34"/>
     </row>
-    <row r="108" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J108" s="12">
         <v>17</v>
       </c>
@@ -11167,7 +11509,7 @@
       <c r="AJ108" s="34"/>
       <c r="AK108" s="34"/>
     </row>
-    <row r="109" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J109" s="12">
         <v>18</v>
       </c>
@@ -11184,7 +11526,7 @@
       <c r="AI109" s="34"/>
       <c r="AJ109" s="34"/>
     </row>
-    <row r="110" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J110" s="12">
         <v>19</v>
       </c>
@@ -11201,7 +11543,7 @@
       <c r="AI110" s="34"/>
       <c r="AJ110" s="34"/>
     </row>
-    <row r="111" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J111" s="12">
         <v>20</v>
       </c>
@@ -11218,7 +11560,7 @@
       <c r="AI111" s="34"/>
       <c r="AJ111" s="34"/>
     </row>
-    <row r="112" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J112" s="12">
         <v>21</v>
       </c>
@@ -11230,7 +11572,7 @@
         <v>0.20296399938724896</v>
       </c>
     </row>
-    <row r="113" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J113" s="12">
         <v>22</v>
       </c>
@@ -11243,7 +11585,7 @@
       </c>
       <c r="V113" s="24"/>
     </row>
-    <row r="114" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J114" s="12">
         <v>23</v>
       </c>
@@ -11255,7 +11597,7 @@
         <v>0.70382233868457256</v>
       </c>
     </row>
-    <row r="115" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J115" s="12">
         <v>24</v>
       </c>
@@ -11267,7 +11609,7 @@
         <v>0.97759387159550037</v>
       </c>
     </row>
-    <row r="116" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J116" s="12">
         <v>25</v>
       </c>
@@ -11280,7 +11622,7 @@
       </c>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J117" s="12">
         <v>26</v>
       </c>
@@ -11294,7 +11636,7 @@
       <c r="W117" s="51"/>
       <c r="Z117" s="24"/>
     </row>
-    <row r="118" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J118" s="12">
         <v>27</v>
       </c>
@@ -11308,7 +11650,7 @@
       <c r="W118" s="25"/>
       <c r="Z118" s="34"/>
     </row>
-    <row r="119" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J119" s="12">
         <v>28</v>
       </c>
@@ -11320,7 +11662,7 @@
         <v>2.5022961817035121</v>
       </c>
     </row>
-    <row r="120" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J120" s="12">
         <v>29</v>
       </c>
@@ -11332,7 +11674,7 @@
         <v>3.0788828690212551</v>
       </c>
     </row>
-    <row r="121" spans="10:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J121" s="12">
         <v>30</v>
       </c>
@@ -11346,6 +11688,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="K35:K49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G8:I11"/>
     <mergeCell ref="K7:R7"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="K8:R8"/>
@@ -11357,14 +11707,6 @@
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="K35:K49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G8:I11"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11375,447 +11717,1383 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="M15" evalError="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DC79B4-CF8A-476A-B592-B686CFFB0A33}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="210"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="117"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
+      <c r="B3" s="192" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="193" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="189" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="186">
+        <v>3</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="118"/>
+    </row>
+    <row r="4" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="117"/>
+      <c r="B4" s="185">
+        <v>4</v>
+      </c>
+      <c r="C4" s="194">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="190" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
+      <c r="B5" s="187">
+        <v>8</v>
+      </c>
+      <c r="C5" s="195">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="26">
+        <v>48</v>
+      </c>
+      <c r="G5" s="26">
+        <v>33</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="117"/>
+      <c r="B6" s="187">
+        <v>16</v>
+      </c>
+      <c r="C6" s="195">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="26">
+        <v>43.5</v>
+      </c>
+      <c r="G6" s="26">
+        <v>31</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="244" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="118"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="187">
+        <v>30</v>
+      </c>
+      <c r="C7" s="195">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>38</v>
+      </c>
+      <c r="G7" s="26">
+        <v>31</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="170">
+        <v>7</v>
+      </c>
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="117"/>
+      <c r="B8" s="187">
+        <v>50</v>
+      </c>
+      <c r="C8" s="195">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>34</v>
+      </c>
+      <c r="G8" s="26">
+        <v>31</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="120">
+        <v>371.9</v>
+      </c>
+      <c r="M8" s="118"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="117"/>
+      <c r="B9" s="187">
+        <v>100</v>
+      </c>
+      <c r="C9" s="195">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26">
+        <v>29</v>
+      </c>
+      <c r="G9" s="26">
+        <v>31</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="120">
+        <v>31</v>
+      </c>
+      <c r="M9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="117"/>
+      <c r="B10" s="187">
+        <v>200</v>
+      </c>
+      <c r="C10" s="195">
+        <v>2.4</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="26">
+        <v>8</v>
+      </c>
+      <c r="F10" s="26">
+        <v>24</v>
+      </c>
+      <c r="G10" s="26">
+        <v>31</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="120">
+        <v>340.4</v>
+      </c>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="117"/>
+      <c r="B11" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="196">
+        <v>97</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="26">
+        <v>15</v>
+      </c>
+      <c r="F11" s="26">
+        <v>20</v>
+      </c>
+      <c r="G11" s="26">
+        <v>31</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="120">
+        <v>49.7</v>
+      </c>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="117"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="26">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26">
+        <v>17</v>
+      </c>
+      <c r="G12" s="26">
+        <v>31</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="118">
+        <f>ROUND(-0.000005006464124*L9^2-0.00000484550743*L9+1.00033065352292,5)</f>
+        <v>0.99536999999999998</v>
+      </c>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="26">
+        <v>60</v>
+      </c>
+      <c r="F13" s="26">
+        <v>14</v>
+      </c>
+      <c r="G13" s="26">
+        <v>31</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124">
+        <f>MROUND((L12*L11)/(L11-L8+L10),0.01)</f>
+        <v>2.72</v>
+      </c>
+      <c r="M13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="117"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="26">
+        <v>120</v>
+      </c>
+      <c r="F14" s="26">
+        <v>11.5</v>
+      </c>
+      <c r="G14" s="26">
+        <v>31</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="118"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="26">
+        <v>240</v>
+      </c>
+      <c r="F15" s="26">
+        <v>10</v>
+      </c>
+      <c r="G15" s="26">
+        <v>31</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="118"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="26">
+        <v>480</v>
+      </c>
+      <c r="F16" s="26">
+        <v>9.5</v>
+      </c>
+      <c r="G16" s="26">
+        <v>31</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="118"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="117"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="26">
+        <v>1434</v>
+      </c>
+      <c r="F17" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="26">
+        <v>31</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="118"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="117"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="26">
+        <v>2865</v>
+      </c>
+      <c r="F18" s="26">
+        <v>6.5</v>
+      </c>
+      <c r="G18" s="26">
+        <v>32</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="118"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="117"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="26">
+        <v>4306</v>
+      </c>
+      <c r="F19" s="26">
+        <v>6</v>
+      </c>
+      <c r="G19" s="26">
+        <v>32</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="118"/>
+    </row>
+    <row r="20" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="211"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="212"/>
+    </row>
+    <row r="22" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+      <c r="B22" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="197" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="205"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="198"/>
+      <c r="D23" s="199">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12">
+        <v>4</v>
+      </c>
+      <c r="H23" s="12">
+        <v>5</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="202">
+        <v>1</v>
+      </c>
+      <c r="N23" s="202">
+        <v>2</v>
+      </c>
+      <c r="O23" s="202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="200">
+        <v>15</v>
+      </c>
+      <c r="E24" s="201">
+        <v>20</v>
+      </c>
+      <c r="F24" s="201">
+        <v>25</v>
+      </c>
+      <c r="G24" s="201">
+        <v>30</v>
+      </c>
+      <c r="H24" s="201">
+        <v>35</v>
+      </c>
+      <c r="J24" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="71"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="206">
+        <v>9.32</v>
+      </c>
+      <c r="N24" s="206">
+        <v>9.14</v>
+      </c>
+      <c r="O24" s="203">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203">
+        <v>10.88</v>
+      </c>
+      <c r="E25" s="203">
+        <v>7.75</v>
+      </c>
+      <c r="F25" s="203">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G25" s="203">
+        <v>6.87</v>
+      </c>
+      <c r="H25" s="203">
+        <v>7.24</v>
+      </c>
+      <c r="J25" s="202" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="207"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="206">
+        <v>45.08</v>
+      </c>
+      <c r="N25" s="206">
+        <v>47.36</v>
+      </c>
+      <c r="O25" s="203">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="202" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="203">
+        <v>48.66</v>
+      </c>
+      <c r="E26" s="203">
+        <v>47.51</v>
+      </c>
+      <c r="F26" s="203">
+        <v>45.41</v>
+      </c>
+      <c r="G26" s="203">
+        <v>50.23</v>
+      </c>
+      <c r="H26" s="203">
+        <v>44.27</v>
+      </c>
+      <c r="J26" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="71"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="206">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="N26" s="206">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="O26" s="203">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="202" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203">
+        <v>37.25</v>
+      </c>
+      <c r="E27" s="203">
+        <v>35.75</v>
+      </c>
+      <c r="F27" s="203">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="G27" s="203">
+        <v>37.94</v>
+      </c>
+      <c r="H27" s="203">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="J27" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="71"/>
+      <c r="L27" s="209"/>
+      <c r="M27" s="202">
+        <f>M25-M26</f>
+        <v>6.1999999999999957</v>
+      </c>
+      <c r="N27" s="202">
+        <f>N25-N26</f>
+        <v>6.5899999999999963</v>
+      </c>
+      <c r="O27" s="202">
+        <f>O25-O26</f>
+        <v>6.2899999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202">
+        <f>D26-D27</f>
+        <v>11.409999999999997</v>
+      </c>
+      <c r="E28" s="202">
+        <f>E26-E27</f>
+        <v>11.759999999999998</v>
+      </c>
+      <c r="F28" s="202">
+        <f>F26-F27</f>
+        <v>10.529999999999994</v>
+      </c>
+      <c r="G28" s="202">
+        <f>G26-G27</f>
+        <v>12.29</v>
+      </c>
+      <c r="H28" s="202">
+        <f>H26-H27</f>
+        <v>10.25</v>
+      </c>
+      <c r="J28" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="71"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="202">
+        <f>M26-M24</f>
+        <v>29.560000000000002</v>
+      </c>
+      <c r="N28" s="202">
+        <f>N26-N24</f>
+        <v>31.630000000000003</v>
+      </c>
+      <c r="O28" s="202">
+        <f>O26-O24</f>
+        <v>30.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202">
+        <f>D27-D25</f>
+        <v>26.369999999999997</v>
+      </c>
+      <c r="E29" s="202">
+        <f>E27-E25</f>
+        <v>28</v>
+      </c>
+      <c r="F29" s="202">
+        <f>F27-F25</f>
+        <v>25.830000000000002</v>
+      </c>
+      <c r="G29" s="202">
+        <f>G27-G25</f>
+        <v>31.069999999999997</v>
+      </c>
+      <c r="H29" s="202">
+        <f>H27-H25</f>
+        <v>26.78</v>
+      </c>
+      <c r="J29" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="204">
+        <f>M27/M28*100</f>
+        <v>20.974289580514192</v>
+      </c>
+      <c r="N29" s="204">
+        <f>N27/N28*100</f>
+        <v>20.83465064811886</v>
+      </c>
+      <c r="O29" s="204">
+        <f>O27/O28*100</f>
+        <v>20.890069744271003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="202"/>
+      <c r="D30" s="204">
+        <f>D28/D29*100</f>
+        <v>43.268866135760327</v>
+      </c>
+      <c r="E30" s="204">
+        <f>E28/E29*100</f>
+        <v>41.999999999999993</v>
+      </c>
+      <c r="F30" s="204">
+        <f>F28/F29*100</f>
+        <v>40.76655052264806</v>
+      </c>
+      <c r="G30" s="204">
+        <f>G28/G29*100</f>
+        <v>39.55584164789186</v>
+      </c>
+      <c r="H30" s="204">
+        <f>H28/H29*100</f>
+        <v>38.274831964152348</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J34" s="247" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="247"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="247"/>
+      <c r="N34" s="247"/>
+      <c r="O34" s="247"/>
+      <c r="P34" s="247"/>
+    </row>
+    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J35" s="213" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="214" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="214" t="s">
+        <v>175</v>
+      </c>
+      <c r="N35" s="214" t="s">
+        <v>176</v>
+      </c>
+      <c r="O35" s="214" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="10:16" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="215">
+        <f>Report!C39</f>
+        <v>3</v>
+      </c>
+      <c r="K36" s="215">
+        <f>Report!C40</f>
+        <v>68.22</v>
+      </c>
+      <c r="L36" s="215">
+        <f>Report!C41</f>
+        <v>28.78</v>
+      </c>
+      <c r="M36" s="216">
+        <f>[1]Report!$D$36</f>
+        <v>41</v>
+      </c>
+      <c r="N36" s="216">
+        <f>[1]Report!$I$45</f>
+        <v>21</v>
+      </c>
+      <c r="O36" s="215" t="str">
+        <f>Report!H41</f>
+        <v>---</v>
+      </c>
+      <c r="P36" s="215" t="str">
+        <f>Report!H40</f>
+        <v>---</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="J34:P34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A27A01-0A1C-4C66-B18D-38DDC96AB035}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="213" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="214" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="214" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="214" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="214" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="215">
+        <v>3</v>
+      </c>
+      <c r="B2" s="215">
+        <v>68.22</v>
+      </c>
+      <c r="C2" s="215">
+        <v>28.78</v>
+      </c>
+      <c r="D2" s="216">
+        <v>41</v>
+      </c>
+      <c r="E2" s="216">
+        <v>21</v>
+      </c>
+      <c r="F2" s="215" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="215" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+    <row r="2" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="212" t="s">
+      <c r="D3" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="213"/>
-      <c r="F3" s="212" t="s">
+      <c r="E3" s="249"/>
+      <c r="F3" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="213"/>
-      <c r="H3" s="153" t="s">
+      <c r="G3" s="249"/>
+      <c r="H3" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="154" t="s">
+      <c r="J3" s="153" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="150" t="s">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="114">
         <v>4.75</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="114">
         <v>2</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B4,main!$B$79:$B$99,-1),1)</f>
         <v>4.75</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B4,main!$B$79:$B$99,-1)+1,1)</f>
         <v>2.36</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B4,main!$B$79:$B$99,-1),2)</f>
         <v>100</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B4,main!$B$79:$B$99,-1)+1,2)</f>
         <v>100</v>
       </c>
-      <c r="H4" s="115" cm="1">
+      <c r="H4" s="114" cm="1">
         <f t="array" ref="H4">TREND(F4:G4,LOG10(D4:E4),LOG10(B4),TRUE)</f>
         <v>100</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="114">
         <f>H5</f>
         <v>100</v>
       </c>
-      <c r="J4" s="155">
+      <c r="J4" s="154">
         <f>ROUND(H4-I4,2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="150" t="s">
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="114">
         <v>2</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="114">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B5,main!$B$79:$B$99,-1),1)</f>
         <v>2.36</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B5,main!$B$79:$B$99,-1)+1,1)</f>
         <v>1.18</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B5,main!$B$79:$B$99,-1),2)</f>
         <v>100</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B5,main!$B$79:$B$99,-1)+1,2)</f>
         <v>100</v>
       </c>
-      <c r="H5" s="115" cm="1">
+      <c r="H5" s="114" cm="1">
         <f t="array" ref="H5">TREND(F5:G5,LOG10(D5:E5),LOG10(B5),TRUE)</f>
         <v>100</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="114">
         <f t="shared" ref="I5:I9" si="0">H6</f>
-        <v>99.403000408635023</v>
-      </c>
-      <c r="J5" s="155">
+        <v>100</v>
+      </c>
+      <c r="J5" s="154">
         <f t="shared" ref="J5:J9" si="1">ROUND(H5-I5,2)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="114">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B6,main!$B$79:$B$99,-1),1)</f>
         <v>0.6</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B6,main!$B$79:$B$99,-1)+1,1)</f>
         <v>0.3</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B6,main!$B$79:$B$99,-1),2)</f>
         <v>100</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B6,main!$B$79:$B$99,-1)+1,2)</f>
-        <v>98.8</v>
-      </c>
-      <c r="H6" s="115" cm="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="114" cm="1">
         <f t="array" ref="H6">TREND(F6:G6,LOG10(D6:E6),LOG10(B6),TRUE)</f>
-        <v>99.403000408635023</v>
-      </c>
-      <c r="I6" s="115">
+        <v>100</v>
+      </c>
+      <c r="I6" s="114">
         <f t="shared" si="0"/>
-        <v>84.500000000000014</v>
-      </c>
-      <c r="J6" s="155">
+        <v>97</v>
+      </c>
+      <c r="J6" s="154">
         <f t="shared" si="1"/>
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="114">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="114">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B7,main!$B$79:$B$99,-1),1)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B7,main!$B$79:$B$99,-1)+1,1)</f>
-        <v>5.2839999999999998E-2</v>
-      </c>
-      <c r="F7" s="115">
+        <v>5.1150000000000001E-2</v>
+      </c>
+      <c r="F7" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B7,main!$B$79:$B$99,-1),2)</f>
-        <v>84.5</v>
-      </c>
-      <c r="G7" s="115">
+        <v>97</v>
+      </c>
+      <c r="G7" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B7,main!$B$79:$B$99,-1)+1,2)</f>
-        <v>80.03364096</v>
-      </c>
-      <c r="H7" s="115" cm="1">
+        <v>87.105192959999982</v>
+      </c>
+      <c r="H7" s="114" cm="1">
         <f t="array" ref="H7">TREND(F7:G7,LOG10(D7:E7),LOG10(B7),TRUE)</f>
-        <v>84.500000000000014</v>
-      </c>
-      <c r="I7" s="115">
+        <v>97</v>
+      </c>
+      <c r="I7" s="114">
         <f t="shared" si="0"/>
-        <v>48.142203750915698</v>
-      </c>
-      <c r="J7" s="155">
+        <v>28.781042568069395</v>
+      </c>
+      <c r="J7" s="154">
         <f t="shared" si="1"/>
-        <v>36.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="150" t="s">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="114">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="114">
         <v>1E-3</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B8,main!$B$79:$B$99,-1),1)</f>
-        <v>5.6600000000000001E-3</v>
-      </c>
-      <c r="E8" s="115">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="E8" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B8,main!$B$79:$B$99,-1)+1,1)</f>
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="F8" s="115">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="F8" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B8,main!$B$79:$B$99,-1),2)</f>
-        <v>49.378933760000002</v>
-      </c>
-      <c r="G8" s="115">
+        <v>30.754245760000003</v>
+      </c>
+      <c r="G8" s="114">
         <f>INDEX(main!$B$79:$C$99,MATCH(B8,main!$B$79:$B$99,-1)+1,2)</f>
-        <v>46.064911360000018</v>
-      </c>
-      <c r="H8" s="115" cm="1">
+        <v>25.978741760000002</v>
+      </c>
+      <c r="H8" s="114" cm="1">
         <f t="array" ref="H8">TREND(F8:G8,LOG10(D8:E8),LOG10(B8),TRUE)</f>
-        <v>48.142203750915698</v>
-      </c>
-      <c r="I8" s="115">
+        <v>28.781042568069395</v>
+      </c>
+      <c r="I8" s="114">
         <f t="shared" si="0"/>
-        <v>37.903460761341968</v>
-      </c>
-      <c r="J8" s="155">
+        <v>18.446563825873639</v>
+      </c>
+      <c r="J8" s="154">
         <f t="shared" si="1"/>
-        <v>10.24</v>
-      </c>
-      <c r="K8" s="214" t="s">
+        <v>10.33</v>
+      </c>
+      <c r="K8" s="250" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="165">
+      <c r="L8" s="164">
         <f>J9+J8</f>
-        <v>48.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="139">
+      <c r="B9" s="138">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C9" s="138">
         <v>0</v>
       </c>
-      <c r="D9" s="139">
+      <c r="D9" s="138">
         <f>INDEX(main!$B$79:$C$99,MATCH(B9,main!$B$79:$B$99,-1),1)</f>
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="E9" s="139">
+      <c r="E9" s="138">
         <f>INDEX(main!$B$79:$C$99,MATCH(B9,main!$B$79:$B$99,-1)+1,1)</f>
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="F9" s="139">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="F9" s="138">
         <f>INDEX(main!$B$79:$C$99,MATCH(B9,main!$B$79:$B$99,-1),2)</f>
-        <v>39.271165439999997</v>
-      </c>
-      <c r="G9" s="139">
+        <v>18.337935359999999</v>
+      </c>
+      <c r="G9" s="138">
         <f>INDEX(main!$B$79:$C$99,MATCH(B9,main!$B$79:$B$99,-1)+1,2)</f>
-        <v>36.785648640000005</v>
-      </c>
-      <c r="H9" s="139" cm="1">
+        <v>18.528955519999997</v>
+      </c>
+      <c r="H9" s="138" cm="1">
         <f t="array" ref="H9">TREND(F9:G9,LOG10(D9:E9),LOG10(B9),TRUE)</f>
-        <v>37.903460761341968</v>
-      </c>
-      <c r="I9" s="139">
+        <v>18.446563825873639</v>
+      </c>
+      <c r="I9" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="156">
+      <c r="J9" s="155">
         <f t="shared" si="1"/>
-        <v>37.9</v>
-      </c>
-      <c r="K9" s="215"/>
-      <c r="L9" s="164"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="147" t="s">
+        <v>18.45</v>
+      </c>
+      <c r="K9" s="251"/>
+      <c r="L9" s="163"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="147">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="140" t="s">
+    <row r="11" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="212" t="s">
+      <c r="C12" s="249"/>
+      <c r="D12" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="213"/>
-      <c r="F12" s="178" t="s">
+      <c r="E12" s="249"/>
+      <c r="F12" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="178" t="s">
+      <c r="G12" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="135" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="141">
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="140">
         <v>10</v>
       </c>
-      <c r="B13" s="142">
+      <c r="B13" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A13,main!$C$79:$C$99,-1),2)</f>
-        <v>35.957143039999998</v>
-      </c>
-      <c r="C13" s="142" t="e">
+        <v>17.57385472</v>
+      </c>
+      <c r="C13" s="141" t="e">
         <f>INDEX(main!$B$79:$C$99,MATCH(A13,main!$C$79:$C$99,-1)+1,2)</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="142">
+      <c r="D13" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A13,main!$C$79:$C$99,-1),1)</f>
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="E13" s="142" t="e">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E13" s="141" t="e">
         <f>INDEX(main!$B$79:$C$99,MATCH(A13,main!$C$79:$C$99,-1)+1,1)</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="176" t="str" cm="1">
+      <c r="F13" s="175" t="str" cm="1">
         <f t="array" ref="F13">IF(ISERROR(E13)=FALSE,ROUND(10^TREND(LOG10(D13:E13),B13:C13,A13),3),"---")</f>
         <v>---</v>
       </c>
-      <c r="G13" s="176"/>
-      <c r="H13" s="137"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="141">
+      <c r="G13" s="175"/>
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="140">
         <v>30</v>
       </c>
-      <c r="B14" s="142">
+      <c r="B14" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A14,main!$C$79:$C$99,-1),2)</f>
-        <v>35.957143039999998</v>
-      </c>
-      <c r="C14" s="142" t="e">
+        <v>30.754245760000003</v>
+      </c>
+      <c r="C14" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A14,main!$C$79:$C$99,-1)+1,2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="142">
+        <v>25.978741760000002</v>
+      </c>
+      <c r="D14" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A14,main!$C$79:$C$99,-1),1)</f>
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="E14" s="142" t="e">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="E14" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A14,main!$C$79:$C$99,-1)+1,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="176" t="str" cm="1">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="F14" s="175" cm="1">
         <f t="array" ref="F14">IF(ISERROR(E14)=FALSE,ROUND(10^TREND(LOG10(D14:E14),B14:C14,A14),3),"---")</f>
-        <v>---</v>
-      </c>
-      <c r="G14" s="177" t="str">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="176" t="str">
         <f>IF(OR(F13="---",F15="---"),"---",ROUND(F15/F13,2))</f>
         <v>---</v>
       </c>
-      <c r="H14" s="138" t="str">
+      <c r="H14" s="137" t="str">
         <f>IF(OR(F13="---",F14="---",F15="---"),"---",ROUND(F14^2/(F15*F13),2))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="141">
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A15" s="140">
         <v>60</v>
       </c>
-      <c r="B15" s="142">
+      <c r="B15" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A15,main!$C$79:$C$99,-1),2)</f>
-        <v>62.635023359999998</v>
-      </c>
-      <c r="C15" s="142">
+        <v>68.958277760000001</v>
+      </c>
+      <c r="C15" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A15,main!$C$79:$C$99,-1)+1,2)</f>
-        <v>57.663989759999993</v>
-      </c>
-      <c r="D15" s="142">
+        <v>59.407269759999998</v>
+      </c>
+      <c r="D15" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A15,main!$C$79:$C$99,-1),1)</f>
-        <v>1.452E-2</v>
-      </c>
-      <c r="E15" s="142">
+        <v>2.7539999999999999E-2</v>
+      </c>
+      <c r="E15" s="141">
         <f>INDEX(main!$B$79:$C$99,MATCH(A15,main!$C$79:$C$99,-1)+1,1)</f>
-        <v>1.0869999999999999E-2</v>
-      </c>
-      <c r="F15" s="176" cm="1">
+        <v>2.018E-2</v>
+      </c>
+      <c r="F15" s="175" cm="1">
         <f t="array" ref="F15">IF(ISERROR(E15)=FALSE,ROUND(10^TREND(LOG10(D15:E15),B15:C15,A15),3),"---")</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="G15" s="176"/>
-      <c r="H15" s="137"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="143">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G15" s="175"/>
+      <c r="H15" s="136"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="142">
         <v>50</v>
       </c>
-      <c r="B16" s="179">
+      <c r="B16" s="178">
         <f>INDEX(main!$B$79:$C$99,MATCH(A16,main!$C$79:$C$99,-1),2)</f>
-        <v>52.692956160000001</v>
-      </c>
-      <c r="C16" s="179">
+        <v>59.407269759999998</v>
+      </c>
+      <c r="C16" s="178">
         <f>INDEX(main!$B$79:$C$99,MATCH(A16,main!$C$79:$C$99,-1)+1,2)</f>
-        <v>49.378933760000002</v>
-      </c>
-      <c r="D16" s="179">
+        <v>49.85626176000001</v>
+      </c>
+      <c r="D16" s="178">
         <f>INDEX(main!$B$79:$C$99,MATCH(A16,main!$C$79:$C$99,-1),1)</f>
-        <v>7.8700000000000003E-3</v>
-      </c>
-      <c r="E16" s="179">
+        <v>2.018E-2</v>
+      </c>
+      <c r="E16" s="178">
         <f>INDEX(main!$B$79:$C$99,MATCH(A16,main!$C$79:$C$99,-1)+1,1)</f>
-        <v>5.6600000000000001E-3</v>
-      </c>
-      <c r="F16" s="180" cm="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F16" s="179" cm="1">
         <f t="array" ref="F16">IF(ISERROR(E16)=FALSE,ROUND(10^TREND(LOG10(D16:E16),B16:C16,A16),3),"---")</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G16" s="180"/>
+      <c r="H16" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11829,23 +13107,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11854,7 +13133,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -11864,91 +13143,91 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="D4" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="157" t="str">
+      <c r="B8" s="156" t="str">
         <f>main!B8</f>
         <v>1102-05882/CE/19-20 Dated 23/01/2020</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="196" t="s">
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="217" t="str">
+      <c r="G8" s="253" t="str">
         <f>main!G8</f>
         <v>NE-003 (28+5B) MULTISTORIED COMMERCIAL BUILDING</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="174" t="str">
+      <c r="B9" s="173" t="str">
         <f>main!B9</f>
         <v>NEXTEON DEVELOPMENT LTD., 339/B, 1st Floor, Tejgaon I/A, Dhaka-1208</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="157" t="str">
+      <c r="B10" s="156" t="str">
         <f>main!B10</f>
         <v>Letter Dated 23/01/2020</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="253"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="97"/>
-      <c r="C11" s="157">
+      <c r="C11" s="156">
         <f>main!C11</f>
         <v>2</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="169" t="s">
+      <c r="F11" s="219"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="253"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="168" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="157" t="str">
+      <c r="C12" s="156" t="str">
         <f>main!C12</f>
         <v>UD-1</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="99"/>
       <c r="F12" s="99" t="s">
         <v>101</v>
@@ -11957,10 +13236,10 @@
         <f>main!G12</f>
         <v>04/02/2020 to 08/02/2020</v>
       </c>
-      <c r="H12" s="160"/>
+      <c r="H12" s="159"/>
       <c r="I12" s="53"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
         <v>99</v>
       </c>
@@ -11971,60 +13250,60 @@
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="218" t="s">
+      <c r="F13" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="217" t="str">
+      <c r="G13" s="253" t="str">
         <f>main!G13</f>
         <v>ASTM D422, D854, D1140, D6913, D7928</v>
       </c>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="89"/>
       <c r="C14" s="106"/>
-      <c r="D14" s="219" t="str">
+      <c r="D14" s="255" t="str">
         <f>main!D14</f>
         <v>Red Silty Clay</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="255"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="81"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="216" t="s">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="216"/>
-    </row>
-    <row r="17" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="252"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+    </row>
+    <row r="17" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12035,7 +13314,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12046,7 +13325,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12057,7 +13336,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12068,7 +13347,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12079,7 +13358,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12090,10 +13369,10 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -12101,162 +13380,162 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144" t="s">
+    <row r="34" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="172">
+      <c r="B37" s="143"/>
+      <c r="C37" s="171">
         <f>'Some Calculations'!J4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="144" t="s">
+      <c r="D37" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="144" t="s">
+      <c r="E37" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="146" t="str">
+      <c r="F37" s="145" t="str">
         <f>'Some Calculations'!F13</f>
         <v>---</v>
       </c>
-      <c r="G37" s="144" t="s">
+      <c r="G37" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="144" t="s">
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="144"/>
-      <c r="C38" s="172">
+      <c r="B38" s="143"/>
+      <c r="C38" s="171">
         <f>'Some Calculations'!J5</f>
-        <v>0.6</v>
-      </c>
-      <c r="D38" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="144" t="s">
+      <c r="E38" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="146" t="str">
+      <c r="F38" s="145">
         <f>'Some Calculations'!F14</f>
-        <v>---</v>
-      </c>
-      <c r="G38" s="144" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144" t="s">
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="172">
+      <c r="B39" s="143"/>
+      <c r="C39" s="171">
         <f>'Some Calculations'!J6</f>
-        <v>14.9</v>
-      </c>
-      <c r="D39" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="144" t="s">
+      <c r="E39" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="146">
+      <c r="F39" s="145">
         <f>'Some Calculations'!F15</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="G39" s="144" t="s">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G39" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="144" t="s">
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="172">
+      <c r="B40" s="143"/>
+      <c r="C40" s="171">
         <f>'Some Calculations'!J7</f>
-        <v>36.36</v>
-      </c>
-      <c r="D40" s="144" t="s">
+        <v>68.22</v>
+      </c>
+      <c r="D40" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="144" t="s">
+      <c r="E40" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="173" t="str">
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="172" t="str">
         <f>'Some Calculations'!G14</f>
         <v>---</v>
       </c>
-      <c r="I40" s="144"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="144" t="s">
+      <c r="I40" s="143"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="172">
+      <c r="B41" s="143"/>
+      <c r="C41" s="171">
         <f>'Some Calculations'!L8</f>
-        <v>48.14</v>
-      </c>
-      <c r="D41" s="144" t="s">
+        <v>28.78</v>
+      </c>
+      <c r="D41" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="144" t="s">
+      <c r="E41" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="173" t="str">
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="172" t="str">
         <f>'Some Calculations'!H14</f>
         <v>---</v>
       </c>
-      <c r="I41" s="144"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="183" t="s">
+      <c r="I41" s="143"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="182" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="145"/>
-      <c r="C42" s="184">
+      <c r="B42" s="144"/>
+      <c r="C42" s="183">
         <f>'Some Calculations'!F16</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D42" s="183" t="s">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D42" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="144" t="s">
+      <c r="E42" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="144"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="144">
+      <c r="F42" s="143"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="143">
         <f>main!GS</f>
-        <v>2.74</v>
-      </c>
-      <c r="I42" s="144"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.72</v>
+      </c>
+      <c r="I42" s="143"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
@@ -12267,7 +13546,7 @@
       <c r="H43" s="82"/>
       <c r="I43" s="82"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>88</v>
       </c>
@@ -12280,75 +13559,75 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="161"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="161"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="162" t="str">
+    <row r="45" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="160"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="161" t="str">
         <f>main!A47</f>
         <v>Dr. A. B. M. Badruzzaman</v>
       </c>
-      <c r="B47" s="161"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="162" t="str">
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="161" t="str">
         <f>main!G47</f>
         <v>Dr. Md. Ferdous Alam</v>
       </c>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="161"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="163" t="str">
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="162" t="str">
         <f>main!A48</f>
         <v>Professor</v>
       </c>
-      <c r="B48" s="161"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="163" t="str">
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="162" t="str">
         <f>main!G48</f>
         <v>Assistant Professor</v>
       </c>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="163" t="str">
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="162" t="str">
         <f>main!A49</f>
         <v>Department of Civil Engineering</v>
       </c>
-      <c r="B49" s="161"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="163" t="str">
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="162" t="str">
         <f>main!G49</f>
         <v>Department of Civil Engineering</v>
       </c>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="163" t="str">
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="162" t="str">
         <f>main!A50</f>
         <v>BUET, Dhaka - 1000.</v>
       </c>
@@ -12357,13 +13636,13 @@
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
-      <c r="G50" s="163" t="str">
+      <c r="G50" s="162" t="str">
         <f>main!G50</f>
         <v>BUET, Dhaka - 1000.</v>
       </c>
       <c r="H50" s="53"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Hydrometer_V8.xlsx
+++ b/Hydrometer_V8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdnas\Desktop\ANN excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BE422-0915-4B9F-B2E4-B5322C870D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A912EF-E6A0-4015-8436-7DD4A1DE6DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="30" r:id="rId1"/>
@@ -2668,14 +2668,53 @@
     <xf numFmtId="1" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2701,45 +2740,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8115,7 +8115,7 @@
       <sheetData sheetId="1">
         <row r="36">
           <cell r="D36">
-            <v>41</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="45">
@@ -8565,18 +8565,18 @@
     </row>
     <row r="7" spans="1:37" ht="13" x14ac:dyDescent="0.25">
       <c r="J7" s="84"/>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="232"/>
       <c r="S7" s="85"/>
-      <c r="T7" s="219"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="220"/>
+      <c r="T7" s="228"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="233"/>
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
       <c r="AI7" s="34"/>
@@ -8587,33 +8587,33 @@
       <c r="A8" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="219" t="s">
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="243" t="s">
+      <c r="G8" s="230" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
       <c r="J8" s="84"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="232"/>
       <c r="S8" s="85"/>
-      <c r="T8" s="221"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="220"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="233"/>
       <c r="AG8" s="34"/>
       <c r="AH8" s="34"/>
       <c r="AI8" s="34"/>
@@ -8630,23 +8630,23 @@
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
       <c r="J9" s="84"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="231"/>
+      <c r="O9" s="231"/>
+      <c r="P9" s="231"/>
+      <c r="Q9" s="231"/>
+      <c r="R9" s="231"/>
       <c r="S9" s="85"/>
       <c r="T9" s="87"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="220"/>
+      <c r="U9" s="234"/>
+      <c r="V9" s="233"/>
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
       <c r="AI9" s="34"/>
@@ -8657,29 +8657,29 @@
       <c r="A10" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
       <c r="J10" s="84"/>
       <c r="K10" s="96"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="226"/>
-      <c r="U10" s="226"/>
-      <c r="V10" s="226"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="239"/>
+      <c r="U10" s="239"/>
+      <c r="V10" s="239"/>
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
       <c r="AI10" s="34"/>
@@ -8696,10 +8696,10 @@
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="92"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="230"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -8767,11 +8767,11 @@
       <c r="F13" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="242" t="s">
+      <c r="G13" s="229" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
       <c r="J13" s="79" t="s">
         <v>46</v>
       </c>
@@ -8807,9 +8807,9 @@
       </c>
       <c r="E14" s="93"/>
       <c r="F14" s="104"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
+      <c r="G14" s="229"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="229"/>
       <c r="J14" s="20" t="s">
         <v>47</v>
       </c>
@@ -9223,18 +9223,18 @@
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="227" t="s">
+      <c r="M27" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="228"/>
+      <c r="N27" s="241"/>
       <c r="O27" s="29" t="s">
         <v>52</v>
       </c>
       <c r="P27" s="31"/>
-      <c r="Q27" s="229">
+      <c r="Q27" s="242">
         <v>867452</v>
       </c>
-      <c r="R27" s="230"/>
+      <c r="R27" s="243"/>
       <c r="S27" s="33" t="s">
         <v>55</v>
       </c>
@@ -9339,15 +9339,15 @@
         <v>53</v>
       </c>
       <c r="K30" s="31"/>
-      <c r="L30" s="222" t="s">
+      <c r="L30" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="223"/>
-      <c r="N30" s="223"/>
-      <c r="O30" s="223"/>
-      <c r="P30" s="223"/>
-      <c r="Q30" s="223"/>
-      <c r="R30" s="224"/>
+      <c r="M30" s="236"/>
+      <c r="N30" s="236"/>
+      <c r="O30" s="236"/>
+      <c r="P30" s="236"/>
+      <c r="Q30" s="236"/>
+      <c r="R30" s="237"/>
       <c r="S30" s="29" t="s">
         <v>64</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="J35" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="K35" s="232" t="s">
+      <c r="K35" s="218" t="s">
         <v>103</v>
       </c>
       <c r="L35" s="26">
@@ -9569,7 +9569,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J36" s="26"/>
-      <c r="K36" s="233"/>
+      <c r="K36" s="219"/>
       <c r="L36" s="26">
         <f>'input-output'!E6</f>
         <v>0.5</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J37" s="26"/>
-      <c r="K37" s="233"/>
+      <c r="K37" s="219"/>
       <c r="L37" s="26">
         <f>'input-output'!E7</f>
         <v>1</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J38" s="26"/>
-      <c r="K38" s="233"/>
+      <c r="K38" s="219"/>
       <c r="L38" s="26">
         <f>'input-output'!E8</f>
         <v>2</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J39" s="26"/>
-      <c r="K39" s="233"/>
+      <c r="K39" s="219"/>
       <c r="L39" s="26">
         <f>'input-output'!E9</f>
         <v>4</v>
@@ -9794,7 +9794,7 @@
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="233"/>
+      <c r="K40" s="219"/>
       <c r="L40" s="26">
         <f>'input-output'!E10</f>
         <v>8</v>
@@ -9851,7 +9851,7 @@
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="233"/>
+      <c r="K41" s="219"/>
       <c r="L41" s="26">
         <f>'input-output'!E11</f>
         <v>15</v>
@@ -9909,7 +9909,7 @@
       <c r="B42" s="7"/>
       <c r="G42" s="7"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="233"/>
+      <c r="K42" s="219"/>
       <c r="L42" s="26">
         <f>'input-output'!E12</f>
         <v>30</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J43" s="26"/>
-      <c r="K43" s="233"/>
+      <c r="K43" s="219"/>
       <c r="L43" s="26">
         <f>'input-output'!E13</f>
         <v>60</v>
@@ -10032,7 +10032,7 @@
         <v>89</v>
       </c>
       <c r="J44" s="26"/>
-      <c r="K44" s="233"/>
+      <c r="K44" s="219"/>
       <c r="L44" s="26">
         <f>'input-output'!E14</f>
         <v>120</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="45" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="26"/>
-      <c r="K45" s="233"/>
+      <c r="K45" s="219"/>
       <c r="L45" s="26">
         <f>'input-output'!E15</f>
         <v>240</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="46" spans="1:40" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J46" s="26"/>
-      <c r="K46" s="233"/>
+      <c r="K46" s="219"/>
       <c r="L46" s="26">
         <f>'input-output'!E16</f>
         <v>480</v>
@@ -10210,7 +10210,7 @@
       <c r="H47" s="101"/>
       <c r="I47" s="101"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="233"/>
+      <c r="K47" s="219"/>
       <c r="L47" s="26">
         <f>'input-output'!E17</f>
         <v>1434</v>
@@ -10259,7 +10259,7 @@
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="X47" s="235" t="s">
+      <c r="X47" s="221" t="s">
         <v>104</v>
       </c>
       <c r="AC47" s="24"/>
@@ -10283,7 +10283,7 @@
       <c r="H48" s="101"/>
       <c r="I48" s="101"/>
       <c r="J48" s="77"/>
-      <c r="K48" s="233"/>
+      <c r="K48" s="219"/>
       <c r="L48" s="26">
         <f>'input-output'!E18</f>
         <v>2865</v>
@@ -10331,7 +10331,7 @@
       <c r="W48" s="109">
         <v>2880</v>
       </c>
-      <c r="X48" s="236"/>
+      <c r="X48" s="222"/>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
       <c r="AE48" s="51"/>
@@ -10353,7 +10353,7 @@
       <c r="H49" s="101"/>
       <c r="I49" s="101"/>
       <c r="J49" s="77"/>
-      <c r="K49" s="234"/>
+      <c r="K49" s="220"/>
       <c r="L49" s="26">
         <f>'input-output'!E19</f>
         <v>4306</v>
@@ -10401,7 +10401,7 @@
       <c r="W49" s="110">
         <v>4320</v>
       </c>
-      <c r="X49" s="237"/>
+      <c r="X49" s="223"/>
       <c r="AC49" s="24"/>
       <c r="AD49" s="24"/>
       <c r="AE49" s="51"/>
@@ -10843,10 +10843,10 @@
       </c>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B75" s="238" t="s">
+      <c r="B75" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="239"/>
+      <c r="C75" s="225"/>
       <c r="J75" s="12">
         <v>24</v>
       </c>
@@ -10859,8 +10859,8 @@
       </c>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B76" s="240"/>
-      <c r="C76" s="241"/>
+      <c r="B76" s="226"/>
+      <c r="C76" s="227"/>
       <c r="J76" s="12">
         <v>25</v>
       </c>
@@ -11688,14 +11688,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="K35:K49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G8:I11"/>
     <mergeCell ref="K7:R7"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="K8:R8"/>
@@ -11707,6 +11699,14 @@
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="K35:K49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G8:I11"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11729,7 +11729,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J36" sqref="J36:P36"/>
     </sheetView>
   </sheetViews>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="M36" s="216">
         <f>[1]Report!$D$36</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N36" s="216">
         <f>[1]Report!$I$45</f>
@@ -12661,7 +12661,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -13160,7 +13160,7 @@
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
       <c r="E8" s="157"/>
-      <c r="F8" s="219" t="s">
+      <c r="F8" s="228" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="253" t="str">
@@ -13181,7 +13181,7 @@
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
       <c r="E9" s="156"/>
-      <c r="F9" s="219"/>
+      <c r="F9" s="228"/>
       <c r="G9" s="253"/>
       <c r="H9" s="253"/>
       <c r="I9" s="253"/>
@@ -13197,7 +13197,7 @@
       <c r="C10" s="156"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
-      <c r="F10" s="219"/>
+      <c r="F10" s="228"/>
       <c r="G10" s="253"/>
       <c r="H10" s="253"/>
       <c r="I10" s="253"/>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="219"/>
+      <c r="F11" s="228"/>
       <c r="G11" s="253"/>
       <c r="H11" s="253"/>
       <c r="I11" s="253"/>
